--- a/study-steps-data.xlsx
+++ b/study-steps-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopo/Desktop/smells-replication-package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D216E8D3-38F2-8140-8E97-EAF327B8E754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A0A48-AC8D-F041-8C6F-F4FC2C8A7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="52240" windowHeight="22820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="52240" windowHeight="22820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1 - Literature" sheetId="1" r:id="rId1"/>
@@ -3299,9 +3299,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4562,19 +4559,6 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4648,9 +4632,6 @@
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4682,11 +4663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4779,7 +4755,7 @@
     <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4789,6 +4765,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5008,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
     </sheetView>
@@ -15603,178 +15600,178 @@
       <c r="I60" s="41"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="149" t="s">
+      <c r="A61" s="189" t="s">
         <v>1024</v>
       </c>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="150" t="s">
+      <c r="B61" s="189"/>
+      <c r="C61" s="189"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="189"/>
+      <c r="G61" s="189"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
+      <c r="J61" s="142" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="151">
+      <c r="A62" s="143">
         <v>9</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="151" t="s">
+      <c r="D62" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="151">
+      <c r="E62" s="143">
         <v>2019</v>
       </c>
-      <c r="F62" s="151" t="s">
+      <c r="F62" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="151" t="s">
+      <c r="G62" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="151" t="s">
+      <c r="H62" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="151" t="s">
+      <c r="I62" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="148" t="s">
+      <c r="J62" s="141" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="151">
+      <c r="A63" s="143">
         <v>11</v>
       </c>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="151" t="s">
+      <c r="C63" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="151" t="s">
+      <c r="D63" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="151">
+      <c r="E63" s="143">
         <v>2020</v>
       </c>
-      <c r="F63" s="151" t="s">
+      <c r="F63" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="151" t="s">
+      <c r="G63" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="151" t="s">
+      <c r="H63" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="151" t="s">
+      <c r="I63" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="J63" s="148" t="s">
+      <c r="J63" s="141" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="151">
+      <c r="A64" s="143">
         <v>14</v>
       </c>
-      <c r="B64" s="151" t="s">
+      <c r="B64" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="151" t="s">
+      <c r="C64" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="151" t="s">
+      <c r="D64" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="151">
+      <c r="E64" s="143">
         <v>2019</v>
       </c>
-      <c r="F64" s="151" t="s">
+      <c r="F64" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="151" t="s">
+      <c r="G64" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="151" t="s">
+      <c r="H64" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="151" t="s">
+      <c r="I64" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="J64" s="148" t="s">
+      <c r="J64" s="141" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="151">
+      <c r="A65" s="143">
         <v>41</v>
       </c>
-      <c r="B65" s="151" t="s">
+      <c r="B65" s="143" t="s">
         <v>314</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="151" t="s">
+      <c r="D65" s="143" t="s">
         <v>315</v>
       </c>
-      <c r="E65" s="151">
+      <c r="E65" s="143">
         <v>2017</v>
       </c>
-      <c r="F65" s="151" t="s">
+      <c r="F65" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="151" t="s">
+      <c r="G65" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="151" t="s">
+      <c r="H65" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="151" t="s">
+      <c r="I65" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="J65" s="148" t="s">
+      <c r="J65" s="141" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="151">
+      <c r="A66" s="143">
         <v>57</v>
       </c>
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="143" t="s">
         <v>491</v>
       </c>
-      <c r="C66" s="151" t="s">
+      <c r="C66" s="143" t="s">
         <v>492</v>
       </c>
-      <c r="D66" s="151" t="s">
+      <c r="D66" s="143" t="s">
         <v>493</v>
       </c>
-      <c r="E66" s="151">
+      <c r="E66" s="143">
         <v>2018</v>
       </c>
-      <c r="F66" s="151" t="s">
+      <c r="F66" s="143" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="151" t="s">
+      <c r="G66" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="H66" s="151" t="s">
+      <c r="H66" s="143" t="s">
         <v>327</v>
       </c>
-      <c r="I66" s="151" t="s">
+      <c r="I66" s="143" t="s">
         <v>494</v>
       </c>
-      <c r="J66" s="148" t="s">
+      <c r="J66" s="141" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -18423,8 +18420,8 @@
   </sheetPr>
   <dimension ref="A1:G1188"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="K259" sqref="K259"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18774,20 +18771,20 @@
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="167" t="s">
         <v>581</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="168" t="s">
         <v>582</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="167" t="s">
         <v>583</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="169" t="s">
         <v>584</v>
       </c>
-      <c r="F20" s="199"/>
-      <c r="G20" s="186">
+      <c r="F20" s="188"/>
+      <c r="G20" s="175">
         <v>1</v>
       </c>
     </row>
@@ -19192,90 +19189,90 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="181">
+      <c r="A44" s="170">
         <v>9</v>
       </c>
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="171" t="s">
         <v>581</v>
       </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="184" t="s">
+      <c r="C44" s="172"/>
+      <c r="D44" s="173" t="s">
         <v>588</v>
       </c>
-      <c r="E44" s="185" t="s">
+      <c r="E44" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="G44" s="186">
+      <c r="G44" s="175">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="187"/>
-      <c r="B45" s="182" t="s">
+      <c r="A45" s="176"/>
+      <c r="B45" s="171" t="s">
         <v>623</v>
       </c>
-      <c r="C45" s="188" t="s">
+      <c r="C45" s="177" t="s">
         <v>639</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="171" t="s">
         <v>625</v>
       </c>
-      <c r="E45" s="189" t="s">
+      <c r="E45" s="178" t="s">
         <v>640</v>
       </c>
-      <c r="G45" s="186">
+      <c r="G45" s="175">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="187"/>
-      <c r="B46" s="182" t="s">
+      <c r="A46" s="176"/>
+      <c r="B46" s="171" t="s">
         <v>581</v>
       </c>
-      <c r="C46" s="188" t="s">
+      <c r="C46" s="177" t="s">
         <v>641</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="171" t="s">
         <v>586</v>
       </c>
-      <c r="E46" s="189" t="s">
+      <c r="E46" s="178" t="s">
         <v>642</v>
       </c>
-      <c r="G46" s="186">
+      <c r="G46" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="187"/>
-      <c r="B47" s="182" t="s">
+      <c r="A47" s="176"/>
+      <c r="B47" s="171" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="188"/>
-      <c r="D47" s="182" t="s">
+      <c r="C47" s="177"/>
+      <c r="D47" s="171" t="s">
         <v>643</v>
       </c>
-      <c r="E47" s="189" t="s">
+      <c r="E47" s="178" t="s">
         <v>644</v>
       </c>
-      <c r="G47" s="186">
+      <c r="G47" s="175">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="190"/>
-      <c r="B48" s="191" t="s">
+      <c r="A48" s="179"/>
+      <c r="B48" s="180" t="s">
         <v>536</v>
       </c>
-      <c r="C48" s="192" t="s">
+      <c r="C48" s="181" t="s">
         <v>645</v>
       </c>
-      <c r="D48" s="191" t="s">
+      <c r="D48" s="180" t="s">
         <v>538</v>
       </c>
-      <c r="E48" s="193" t="s">
+      <c r="E48" s="182" t="s">
         <v>646</v>
       </c>
-      <c r="G48" s="186">
+      <c r="G48" s="175">
         <v>1</v>
       </c>
     </row>
@@ -19372,107 +19369,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="133">
+    <row r="54" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="126">
         <v>11</v>
       </c>
-      <c r="B54" s="134" t="s">
+      <c r="B54" s="127" t="s">
         <v>623</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="128" t="s">
         <v>660</v>
       </c>
-      <c r="D54" s="134" t="s">
+      <c r="D54" s="127" t="s">
         <v>661</v>
       </c>
-      <c r="E54" s="136" t="s">
+      <c r="E54" s="129" t="s">
         <v>662</v>
       </c>
-      <c r="G54" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="139"/>
-      <c r="B55" s="134" t="s">
+      <c r="G54" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="132"/>
+      <c r="B55" s="127" t="s">
         <v>613</v>
       </c>
-      <c r="C55" s="140"/>
-      <c r="D55" s="134" t="s">
+      <c r="C55" s="133"/>
+      <c r="D55" s="127" t="s">
         <v>615</v>
       </c>
-      <c r="E55" s="136" t="s">
+      <c r="E55" s="129" t="s">
         <v>663</v>
       </c>
-      <c r="G55" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="139"/>
-      <c r="B56" s="134" t="s">
+      <c r="G55" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="132"/>
+      <c r="B56" s="127" t="s">
         <v>574</v>
       </c>
-      <c r="C56" s="140"/>
-      <c r="D56" s="141" t="s">
+      <c r="C56" s="133"/>
+      <c r="D56" s="134" t="s">
         <v>534</v>
       </c>
-      <c r="E56" s="136" t="s">
+      <c r="E56" s="129" t="s">
         <v>664</v>
       </c>
-      <c r="G56" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="139"/>
-      <c r="B57" s="134" t="s">
+      <c r="G56" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="132"/>
+      <c r="B57" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="133" t="s">
         <v>665</v>
       </c>
-      <c r="D57" s="134" t="s">
+      <c r="D57" s="127" t="s">
         <v>569</v>
       </c>
-      <c r="E57" s="136" t="s">
+      <c r="E57" s="129" t="s">
         <v>666</v>
       </c>
-      <c r="G57" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="139"/>
-      <c r="B58" s="134" t="s">
+      <c r="G57" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="132"/>
+      <c r="B58" s="127" t="s">
         <v>623</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="134" t="s">
+      <c r="C58" s="133"/>
+      <c r="D58" s="127" t="s">
         <v>625</v>
       </c>
-      <c r="E58" s="136" t="s">
+      <c r="E58" s="129" t="s">
         <v>667</v>
       </c>
-      <c r="G58" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="138" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="142"/>
-      <c r="B59" s="143" t="s">
+      <c r="G58" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="131" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="135"/>
+      <c r="B59" s="136" t="s">
         <v>623</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="137" t="s">
         <v>668</v>
       </c>
-      <c r="D59" s="143" t="s">
+      <c r="D59" s="136" t="s">
         <v>625</v>
       </c>
-      <c r="E59" s="145" t="s">
+      <c r="E59" s="138" t="s">
         <v>669</v>
       </c>
-      <c r="G59" s="137">
+      <c r="G59" s="130">
         <v>1</v>
       </c>
     </row>
@@ -19601,22 +19598,22 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="194">
+      <c r="A67" s="183">
         <v>14</v>
       </c>
-      <c r="B67" s="191" t="s">
+      <c r="B67" s="180" t="s">
         <v>681</v>
       </c>
-      <c r="C67" s="192" t="s">
+      <c r="C67" s="181" t="s">
         <v>682</v>
       </c>
-      <c r="D67" s="191" t="s">
+      <c r="D67" s="180" t="s">
         <v>683</v>
       </c>
-      <c r="E67" s="193" t="s">
+      <c r="E67" s="182" t="s">
         <v>684</v>
       </c>
-      <c r="G67" s="186">
+      <c r="G67" s="175">
         <v>1</v>
       </c>
     </row>
@@ -21689,56 +21686,56 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="120">
+      <c r="A188" s="113">
         <v>41</v>
       </c>
-      <c r="B188" s="130" t="s">
+      <c r="B188" s="123" t="s">
         <v>556</v>
       </c>
-      <c r="C188" s="122" t="s">
+      <c r="C188" s="115" t="s">
         <v>864</v>
       </c>
-      <c r="D188" s="130" t="s">
+      <c r="D188" s="123" t="s">
         <v>557</v>
       </c>
-      <c r="E188" s="131" t="s">
+      <c r="E188" s="124" t="s">
         <v>865</v>
       </c>
-      <c r="G188" s="132">
+      <c r="G188" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="124"/>
-      <c r="B189" s="121" t="s">
+      <c r="A189" s="117"/>
+      <c r="B189" s="114" t="s">
         <v>559</v>
       </c>
-      <c r="C189" s="125"/>
-      <c r="D189" s="121" t="s">
+      <c r="C189" s="118"/>
+      <c r="D189" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="E189" s="123" t="s">
+      <c r="E189" s="116" t="s">
         <v>866</v>
       </c>
-      <c r="G189" s="132">
+      <c r="G189" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="126"/>
-      <c r="B190" s="127" t="s">
+      <c r="A190" s="119"/>
+      <c r="B190" s="120" t="s">
         <v>540</v>
       </c>
-      <c r="C190" s="128" t="s">
+      <c r="C190" s="121" t="s">
         <v>867</v>
       </c>
-      <c r="D190" s="127" t="s">
+      <c r="D190" s="120" t="s">
         <v>542</v>
       </c>
-      <c r="E190" s="129" t="s">
+      <c r="E190" s="122" t="s">
         <v>868</v>
       </c>
-      <c r="G190" s="132">
+      <c r="G190" s="125">
         <v>1</v>
       </c>
     </row>
@@ -22733,22 +22730,22 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="195">
+      <c r="A248" s="184">
         <v>57</v>
       </c>
-      <c r="B248" s="196" t="s">
+      <c r="B248" s="185" t="s">
         <v>951</v>
       </c>
-      <c r="C248" s="197" t="s">
+      <c r="C248" s="186" t="s">
         <v>952</v>
       </c>
-      <c r="D248" s="196" t="s">
+      <c r="D248" s="185" t="s">
         <v>953</v>
       </c>
-      <c r="E248" s="198" t="s">
+      <c r="E248" s="187" t="s">
         <v>954</v>
       </c>
-      <c r="G248" s="186">
+      <c r="G248" s="175">
         <v>1</v>
       </c>
     </row>
@@ -23168,7 +23165,7 @@
       <c r="E272" s="100" t="s">
         <v>994</v>
       </c>
-      <c r="F272" s="200">
+      <c r="F272" s="203">
         <f>COUNTIF(F2:F271,"1")/(COUNTIF(F2:F271,"0")+COUNTIF(F2:F271,"1"))*100</f>
         <v>90.763052208835333</v>
       </c>
@@ -29618,66 +29615,66 @@
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="157"/>
+    <col min="12" max="12" width="12.6640625" style="149"/>
     <col min="15" max="15" width="8.1640625" customWidth="1"/>
-    <col min="16" max="18" width="12.6640625" style="157"/>
-    <col min="19" max="19" width="7.33203125" style="157" customWidth="1"/>
-    <col min="20" max="21" width="12.6640625" style="157"/>
-    <col min="22" max="22" width="6.83203125" style="157" customWidth="1"/>
+    <col min="16" max="18" width="12.6640625" style="149"/>
+    <col min="19" max="19" width="7.33203125" style="149" customWidth="1"/>
+    <col min="20" max="21" width="12.6640625" style="149"/>
+    <col min="22" max="22" width="6.83203125" style="149" customWidth="1"/>
     <col min="23" max="23" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="196" t="s">
         <v>995</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="113" t="s">
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="196" t="s">
         <v>996</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="113" t="s">
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="196" t="s">
         <v>997</v>
       </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="113" t="s">
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="196" t="s">
         <v>998</v>
       </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="115"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="198"/>
     </row>
     <row r="2" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="101"/>
       <c r="B2" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="140" t="s">
         <v>1022</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="140" t="s">
         <v>1023</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="199" t="s">
         <v>999</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="139" t="s">
         <v>1021</v>
       </c>
       <c r="H2" s="103" t="s">
@@ -29686,38 +29683,38 @@
       <c r="I2" s="103" t="s">
         <v>619</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="199" t="s">
         <v>999</v>
       </c>
       <c r="K2" s="102" t="s">
         <v>1000</v>
       </c>
-      <c r="L2" s="152" t="s">
+      <c r="L2" s="144" t="s">
         <v>1001</v>
       </c>
       <c r="M2" s="103" t="s">
         <v>559</v>
       </c>
-      <c r="N2" s="147" t="s">
+      <c r="N2" s="140" t="s">
         <v>1026</v>
       </c>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="201" t="s">
         <v>999</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="P2" s="150" t="s">
         <v>536</v>
       </c>
-      <c r="Q2" s="163" t="s">
+      <c r="Q2" s="193" t="s">
         <v>623</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="163" t="s">
+      <c r="R2" s="194"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="193" t="s">
         <v>581</v>
       </c>
-      <c r="U2" s="164"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="116" t="s">
+      <c r="U2" s="194"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="199" t="s">
         <v>999</v>
       </c>
     </row>
@@ -29737,7 +29734,7 @@
       <c r="E3" s="106" t="s">
         <v>1005</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="106" t="s">
         <v>1006</v>
       </c>
@@ -29747,11 +29744,11 @@
       <c r="I3" s="106" t="s">
         <v>1008</v>
       </c>
-      <c r="J3" s="117"/>
+      <c r="J3" s="200"/>
       <c r="K3" s="106" t="s">
         <v>1009</v>
       </c>
-      <c r="L3" s="153" t="s">
+      <c r="L3" s="145" t="s">
         <v>1010</v>
       </c>
       <c r="M3" s="106" t="s">
@@ -29760,75 +29757,75 @@
       <c r="N3" s="106" t="s">
         <v>1012</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="159" t="s">
+      <c r="O3" s="202"/>
+      <c r="P3" s="151" t="s">
         <v>1013</v>
       </c>
-      <c r="Q3" s="166" t="s">
+      <c r="Q3" s="155" t="s">
         <v>625</v>
       </c>
-      <c r="R3" s="166" t="s">
+      <c r="R3" s="155" t="s">
         <v>661</v>
       </c>
-      <c r="S3" s="167" t="s">
+      <c r="S3" s="156" t="s">
         <v>1014</v>
       </c>
-      <c r="T3" s="166" t="s">
+      <c r="T3" s="155" t="s">
         <v>1015</v>
       </c>
-      <c r="U3" s="166" t="s">
+      <c r="U3" s="155" t="s">
         <v>1016</v>
       </c>
-      <c r="V3" s="167" t="s">
+      <c r="V3" s="156" t="s">
         <v>1014</v>
       </c>
-      <c r="W3" s="117"/>
+      <c r="W3" s="200"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="107">
         <v>1</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="108">
         <f t="shared" ref="F4:F62" si="0">COUNTIF(B4:E4,"X")</f>
         <v>1</v>
       </c>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I4" s="174"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="108">
         <f t="shared" ref="J4:J62" si="1">COUNTIF(G4:I4,"X")</f>
         <v>2</v>
       </c>
-      <c r="K4" s="173"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
       <c r="O4" s="109">
         <f>COUNTIF(K4:N4,"X")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="160" t="s">
+      <c r="P4" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="169">
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="158">
         <f t="shared" ref="S4:S62" si="2">COUNTIF(Q4:R4,"X")</f>
         <v>0</v>
       </c>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="169">
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="158">
         <f t="shared" ref="V4:V62" si="3">COUNTIF(T4:U4,"X")</f>
         <v>0</v>
       </c>
@@ -29841,47 +29838,47 @@
       <c r="A5" s="107">
         <v>2</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E5" s="174"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="173"/>
-      <c r="H5" s="174" t="s">
+      <c r="G5" s="162"/>
+      <c r="H5" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I5" s="174"/>
+      <c r="I5" s="163"/>
       <c r="J5" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K5" s="173"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="174" t="s">
+      <c r="K5" s="162"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N5" s="174" t="s">
+      <c r="N5" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O5" s="109">
         <f t="shared" ref="O5:O61" si="5">COUNTIF(L5:N5,"X")</f>
         <v>2</v>
       </c>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="169">
+      <c r="P5" s="152"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="169">
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29894,45 +29891,45 @@
       <c r="A6" s="107">
         <v>3</v>
       </c>
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="174" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I6" s="174"/>
+      <c r="I6" s="163"/>
       <c r="J6" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K6" s="173"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174" t="s">
+      <c r="K6" s="162"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O6" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169">
+      <c r="P6" s="152"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="169">
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29945,47 +29942,47 @@
       <c r="A7" s="107">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="173" t="s">
+      <c r="G7" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I7" s="174"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="174" t="s">
+      <c r="K7" s="162"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N7" s="174"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P7" s="160" t="s">
+      <c r="P7" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="169">
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="169">
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29998,51 +29995,51 @@
       <c r="A8" s="107">
         <v>5</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="174" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="173" t="s">
+      <c r="G8" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H8" s="174" t="s">
+      <c r="H8" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I8" s="174"/>
+      <c r="I8" s="163"/>
       <c r="J8" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
       <c r="O8" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P8" s="160" t="s">
+      <c r="P8" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="169">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="168" t="s">
+      <c r="T8" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U8" s="168" t="s">
+      <c r="U8" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V8" s="169">
+      <c r="V8" s="158">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -30055,49 +30052,49 @@
       <c r="A9" s="107">
         <v>6</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174" t="s">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E9" s="174"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G9" s="173"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
       <c r="J9" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="173" t="s">
+      <c r="K9" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L9" s="154"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
       <c r="O9" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9" s="160" t="s">
+      <c r="P9" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="169">
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168" t="s">
+      <c r="T9" s="157"/>
+      <c r="U9" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V9" s="169">
+      <c r="V9" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30110,51 +30107,51 @@
       <c r="A10" s="107">
         <v>7</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174" t="s">
+      <c r="D10" s="163"/>
+      <c r="E10" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F10" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="173"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174" t="s">
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J10" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="173" t="s">
+      <c r="K10" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L10" s="154"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
       <c r="O10" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="160" t="s">
+      <c r="P10" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q10" s="168" t="s">
+      <c r="Q10" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="169">
+      <c r="R10" s="157"/>
+      <c r="S10" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="169">
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30167,47 +30164,47 @@
       <c r="A11" s="107">
         <v>8</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F11" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="173" t="s">
+      <c r="G11" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H11" s="174" t="s">
+      <c r="H11" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J11" s="108">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K11" s="173"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
       <c r="O11" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="169">
+      <c r="P11" s="152"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="169">
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30220,47 +30217,47 @@
       <c r="A12" s="107">
         <v>9</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="173"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
       <c r="J12" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
       <c r="O12" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="160" t="s">
+      <c r="P12" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q12" s="168" t="s">
+      <c r="Q12" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R12" s="168"/>
-      <c r="S12" s="169">
+      <c r="R12" s="157"/>
+      <c r="S12" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T12" s="168" t="s">
+      <c r="T12" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U12" s="168" t="s">
+      <c r="U12" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V12" s="169">
+      <c r="V12" s="158">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -30273,47 +30270,47 @@
       <c r="A13" s="107">
         <v>10</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F13" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="173"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
       <c r="J13" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="173" t="s">
+      <c r="K13" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L13" s="154"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174" t="s">
+      <c r="L13" s="146"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O13" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="168" t="s">
+      <c r="P13" s="152"/>
+      <c r="Q13" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R13" s="168"/>
-      <c r="S13" s="169">
+      <c r="R13" s="157"/>
+      <c r="S13" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="169">
+      <c r="T13" s="157"/>
+      <c r="U13" s="157"/>
+      <c r="V13" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30326,47 +30323,47 @@
       <c r="A14" s="107">
         <v>12</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F14" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="173" t="s">
+      <c r="G14" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
       <c r="J14" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K14" s="173"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174" t="s">
+      <c r="K14" s="162"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O14" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P14" s="160" t="s">
+      <c r="P14" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169">
+      <c r="Q14" s="157"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="169">
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30379,45 +30376,45 @@
       <c r="A15" s="107">
         <v>13</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174" t="s">
+      <c r="D15" s="163"/>
+      <c r="E15" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F15" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
       <c r="J15" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K15" s="173"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
       <c r="O15" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="169">
+      <c r="P15" s="152"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="169">
+      <c r="T15" s="157"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30430,51 +30427,51 @@
       <c r="A16" s="107">
         <v>15</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174" t="s">
+      <c r="B16" s="162"/>
+      <c r="C16" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F16" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G16" s="173"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174" t="s">
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J16" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K16" s="173"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="174"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
       <c r="O16" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q16" s="168" t="s">
+      <c r="Q16" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R16" s="168"/>
-      <c r="S16" s="169">
+      <c r="R16" s="157"/>
+      <c r="S16" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="169">
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30487,45 +30484,45 @@
       <c r="A17" s="107">
         <v>16</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174" t="s">
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F17" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="173"/>
-      <c r="H17" s="174" t="s">
+      <c r="G17" s="162"/>
+      <c r="H17" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I17" s="174"/>
+      <c r="I17" s="163"/>
       <c r="J17" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K17" s="173"/>
-      <c r="L17" s="154" t="s">
+      <c r="K17" s="162"/>
+      <c r="L17" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="174"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
       <c r="O17" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="169">
+      <c r="P17" s="152"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="169">
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30538,59 +30535,59 @@
       <c r="A18" s="107">
         <v>17</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E18" s="174"/>
+      <c r="E18" s="163"/>
       <c r="F18" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
       <c r="J18" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K18" s="173" t="s">
+      <c r="K18" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L18" s="154" t="s">
+      <c r="L18" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M18" s="174" t="s">
+      <c r="M18" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N18" s="174" t="s">
+      <c r="N18" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O18" s="109">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P18" s="160" t="s">
+      <c r="P18" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="169">
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="168" t="s">
+      <c r="T18" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U18" s="168"/>
-      <c r="V18" s="169">
+      <c r="U18" s="157"/>
+      <c r="V18" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30603,45 +30600,45 @@
       <c r="A19" s="107">
         <v>18</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174" t="s">
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F19" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G19" s="173"/>
-      <c r="H19" s="174" t="s">
+      <c r="G19" s="162"/>
+      <c r="H19" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I19" s="174"/>
+      <c r="I19" s="163"/>
       <c r="J19" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="173"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="174"/>
-      <c r="N19" s="174" t="s">
+      <c r="K19" s="162"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O19" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="168"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="169">
+      <c r="P19" s="152"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="169">
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30654,49 +30651,49 @@
       <c r="A20" s="107">
         <v>19</v>
       </c>
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174" t="s">
+      <c r="C20" s="163"/>
+      <c r="D20" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E20" s="174"/>
+      <c r="E20" s="163"/>
       <c r="F20" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G20" s="173" t="s">
+      <c r="G20" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H20" s="174" t="s">
+      <c r="H20" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I20" s="174"/>
+      <c r="I20" s="163"/>
       <c r="J20" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K20" s="173"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="174" t="s">
+      <c r="K20" s="162"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N20" s="174"/>
+      <c r="N20" s="163"/>
       <c r="O20" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="168"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="169">
+      <c r="P20" s="152"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="169">
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30709,51 +30706,51 @@
       <c r="A21" s="107">
         <v>20</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174" t="s">
+      <c r="D21" s="163"/>
+      <c r="E21" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F21" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G21" s="173"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174" t="s">
+      <c r="G21" s="162"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J21" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K21" s="173"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="174" t="s">
+      <c r="K21" s="162"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O21" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="168" t="s">
+      <c r="P21" s="152"/>
+      <c r="Q21" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R21" s="168"/>
-      <c r="S21" s="169">
+      <c r="R21" s="157"/>
+      <c r="S21" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="169">
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30766,45 +30763,45 @@
       <c r="A22" s="107">
         <v>21</v>
       </c>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174" t="s">
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F22" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" s="173"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174" t="s">
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J22" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K22" s="173"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="174"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
       <c r="O22" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="168"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="169">
+      <c r="P22" s="152"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="168" t="s">
+      <c r="T22" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U22" s="168"/>
-      <c r="V22" s="169">
+      <c r="U22" s="157"/>
+      <c r="V22" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30817,43 +30814,43 @@
       <c r="A23" s="107">
         <v>22</v>
       </c>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174" t="s">
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F23" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="173"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="173"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="174"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
       <c r="O23" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="168"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="169">
+      <c r="P23" s="152"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" s="168" t="s">
+      <c r="T23" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U23" s="168"/>
-      <c r="V23" s="169">
+      <c r="U23" s="157"/>
+      <c r="V23" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30866,51 +30863,51 @@
       <c r="A24" s="107">
         <v>23</v>
       </c>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174" t="s">
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F24" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G24" s="173"/>
-      <c r="H24" s="174" t="s">
+      <c r="G24" s="162"/>
+      <c r="H24" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I24" s="174" t="s">
+      <c r="I24" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J24" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174" t="s">
+      <c r="K24" s="162"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O24" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P24" s="160" t="s">
+      <c r="P24" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="169">
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="168" t="s">
+      <c r="T24" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U24" s="168"/>
-      <c r="V24" s="169">
+      <c r="U24" s="157"/>
+      <c r="V24" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30923,51 +30920,51 @@
       <c r="A25" s="107">
         <v>24</v>
       </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174" t="s">
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F25" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G25" s="173" t="s">
+      <c r="G25" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H25" s="174" t="s">
+      <c r="H25" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I25" s="174" t="s">
+      <c r="I25" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J25" s="108">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K25" s="173"/>
-      <c r="L25" s="154" t="s">
+      <c r="K25" s="162"/>
+      <c r="L25" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
       <c r="O25" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="168" t="s">
+      <c r="P25" s="152"/>
+      <c r="Q25" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R25" s="168"/>
-      <c r="S25" s="169">
+      <c r="R25" s="157"/>
+      <c r="S25" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T25" s="168"/>
-      <c r="U25" s="168"/>
-      <c r="V25" s="169">
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30980,55 +30977,55 @@
       <c r="A26" s="107">
         <v>25</v>
       </c>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174" t="s">
+      <c r="B26" s="162"/>
+      <c r="C26" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174" t="s">
+      <c r="D26" s="163"/>
+      <c r="E26" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F26" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="173" t="s">
+      <c r="G26" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H26" s="174" t="s">
+      <c r="H26" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I26" s="174"/>
+      <c r="I26" s="163"/>
       <c r="J26" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K26" s="173"/>
-      <c r="L26" s="154" t="s">
+      <c r="K26" s="162"/>
+      <c r="L26" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M26" s="174" t="s">
+      <c r="M26" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N26" s="174" t="s">
+      <c r="N26" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O26" s="109">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P26" s="160" t="s">
+      <c r="P26" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="169">
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="169">
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31041,51 +31038,51 @@
       <c r="A27" s="107">
         <v>26</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174" t="s">
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F27" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="173" t="s">
+      <c r="G27" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H27" s="174" t="s">
+      <c r="H27" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I27" s="174"/>
+      <c r="I27" s="163"/>
       <c r="J27" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K27" s="173" t="s">
+      <c r="K27" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L27" s="154" t="s">
+      <c r="L27" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M27" s="174" t="s">
+      <c r="M27" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N27" s="174"/>
+      <c r="N27" s="163"/>
       <c r="O27" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="169">
+      <c r="P27" s="152"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="169">
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31098,49 +31095,49 @@
       <c r="A28" s="107">
         <v>27</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
       <c r="F28" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H28" s="174" t="s">
+      <c r="H28" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I28" s="174" t="s">
+      <c r="I28" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K28" s="173" t="s">
+      <c r="K28" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L28" s="154"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
       <c r="O28" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="168" t="s">
+      <c r="P28" s="152"/>
+      <c r="Q28" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R28" s="168"/>
-      <c r="S28" s="169">
+      <c r="R28" s="157"/>
+      <c r="S28" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="169">
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31153,43 +31150,43 @@
       <c r="A29" s="107">
         <v>28</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
       <c r="F29" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
       <c r="J29" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K29" s="173" t="s">
+      <c r="K29" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L29" s="154"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
       <c r="O29" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="169">
+      <c r="P29" s="152"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="169">
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31202,47 +31199,47 @@
       <c r="A30" s="107">
         <v>29</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174" t="s">
+      <c r="B30" s="162"/>
+      <c r="C30" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174" t="s">
+      <c r="D30" s="163"/>
+      <c r="E30" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F30" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G30" s="173"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
       <c r="J30" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="173"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
       <c r="O30" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="168" t="s">
+      <c r="P30" s="152"/>
+      <c r="Q30" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R30" s="168"/>
-      <c r="S30" s="169">
+      <c r="R30" s="157"/>
+      <c r="S30" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T30" s="168" t="s">
+      <c r="T30" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U30" s="168"/>
-      <c r="V30" s="169">
+      <c r="U30" s="157"/>
+      <c r="V30" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -31255,43 +31252,43 @@
       <c r="A31" s="107">
         <v>30</v>
       </c>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
       <c r="F31" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="173"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
       <c r="J31" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K31" s="173" t="s">
+      <c r="K31" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L31" s="154"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
       <c r="O31" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P31" s="160" t="s">
+      <c r="P31" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q31" s="168"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="169">
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="169">
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31304,47 +31301,47 @@
       <c r="A32" s="107">
         <v>31</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="173"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
       <c r="J32" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="173" t="s">
+      <c r="K32" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L32" s="154"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
       <c r="O32" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P32" s="160" t="s">
+      <c r="P32" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q32" s="168"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="169">
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="168" t="s">
+      <c r="T32" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U32" s="168" t="s">
+      <c r="U32" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V32" s="169">
+      <c r="V32" s="158">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -31357,47 +31354,47 @@
       <c r="A33" s="107">
         <v>32</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174" t="s">
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="173"/>
-      <c r="H33" s="174" t="s">
+      <c r="G33" s="162"/>
+      <c r="H33" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I33" s="174"/>
+      <c r="I33" s="163"/>
       <c r="J33" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K33" s="173"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="174" t="s">
+      <c r="K33" s="162"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N33" s="174" t="s">
+      <c r="N33" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O33" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="169">
+      <c r="P33" s="152"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="169">
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31410,47 +31407,47 @@
       <c r="A34" s="107">
         <v>33</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174" t="s">
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E34" s="174" t="s">
+      <c r="E34" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G34" s="173"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
       <c r="J34" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="173"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
       <c r="O34" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="168" t="s">
+      <c r="P34" s="152"/>
+      <c r="Q34" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R34" s="168"/>
-      <c r="S34" s="169">
+      <c r="R34" s="157"/>
+      <c r="S34" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T34" s="168"/>
-      <c r="U34" s="168" t="s">
+      <c r="T34" s="157"/>
+      <c r="U34" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V34" s="169">
+      <c r="V34" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -31463,45 +31460,45 @@
       <c r="A35" s="107">
         <v>34</v>
       </c>
-      <c r="B35" s="173"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="173"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174" t="s">
+      <c r="G35" s="162"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J35" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K35" s="173"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="174" t="s">
+      <c r="K35" s="162"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O35" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="168" t="s">
+      <c r="P35" s="152"/>
+      <c r="Q35" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R35" s="168"/>
-      <c r="S35" s="169">
+      <c r="R35" s="157"/>
+      <c r="S35" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T35" s="168"/>
-      <c r="U35" s="168"/>
-      <c r="V35" s="169">
+      <c r="T35" s="157"/>
+      <c r="U35" s="157"/>
+      <c r="V35" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31514,45 +31511,45 @@
       <c r="A36" s="107">
         <v>35</v>
       </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174" t="s">
+      <c r="B36" s="162"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G36" s="173"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174" t="s">
+      <c r="G36" s="162"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J36" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="154" t="s">
+      <c r="K36" s="162"/>
+      <c r="L36" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
       <c r="O36" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="169">
+      <c r="P36" s="152"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T36" s="168"/>
-      <c r="U36" s="168"/>
-      <c r="V36" s="169">
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31565,45 +31562,45 @@
       <c r="A37" s="107">
         <v>36</v>
       </c>
-      <c r="B37" s="173"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174" t="s">
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E37" s="174"/>
+      <c r="E37" s="163"/>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="173" t="s">
+      <c r="G37" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
       <c r="J37" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K37" s="173"/>
-      <c r="L37" s="154" t="s">
+      <c r="K37" s="162"/>
+      <c r="L37" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M37" s="174"/>
-      <c r="N37" s="174"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
       <c r="O37" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="168"/>
-      <c r="S37" s="169">
+      <c r="P37" s="152"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T37" s="168"/>
-      <c r="U37" s="168"/>
-      <c r="V37" s="169">
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31616,51 +31613,51 @@
       <c r="A38" s="107">
         <v>37</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="174" t="s">
+      <c r="B38" s="162"/>
+      <c r="C38" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174" t="s">
+      <c r="D38" s="163"/>
+      <c r="E38" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G38" s="173" t="s">
+      <c r="G38" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K38" s="173" t="s">
+      <c r="K38" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L38" s="154"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="174" t="s">
+      <c r="L38" s="146"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O38" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="168" t="s">
+      <c r="P38" s="152"/>
+      <c r="Q38" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R38" s="168"/>
-      <c r="S38" s="169">
+      <c r="R38" s="157"/>
+      <c r="S38" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T38" s="168"/>
-      <c r="U38" s="168"/>
-      <c r="V38" s="169">
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31673,47 +31670,47 @@
       <c r="A39" s="107">
         <v>38</v>
       </c>
-      <c r="B39" s="173"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="173" t="s">
+      <c r="G39" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H39" s="174" t="s">
+      <c r="H39" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I39" s="174"/>
+      <c r="I39" s="163"/>
       <c r="J39" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K39" s="173" t="s">
+      <c r="K39" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L39" s="154"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174" t="s">
+      <c r="L39" s="146"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O39" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="169">
+      <c r="P39" s="152"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T39" s="168"/>
-      <c r="U39" s="168"/>
-      <c r="V39" s="169">
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31726,41 +31723,41 @@
       <c r="A40" s="107">
         <v>39</v>
       </c>
-      <c r="B40" s="173"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="173"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
       <c r="J40" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="173"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="174" t="s">
+      <c r="K40" s="162"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N40" s="174"/>
+      <c r="N40" s="163"/>
       <c r="O40" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P40" s="160"/>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="168"/>
-      <c r="S40" s="169">
+      <c r="P40" s="152"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T40" s="168"/>
-      <c r="U40" s="168"/>
-      <c r="V40" s="169">
+      <c r="T40" s="157"/>
+      <c r="U40" s="157"/>
+      <c r="V40" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31773,47 +31770,47 @@
       <c r="A41" s="107">
         <v>40</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174" t="s">
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F41" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G41" s="173"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
       <c r="J41" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="173"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
       <c r="O41" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="168" t="s">
+      <c r="P41" s="152"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="S41" s="169">
+      <c r="S41" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168" t="s">
+      <c r="T41" s="157"/>
+      <c r="U41" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V41" s="169">
+      <c r="V41" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -31826,43 +31823,43 @@
       <c r="A42" s="107">
         <v>42</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
       <c r="F42" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="173"/>
-      <c r="H42" s="174" t="s">
+      <c r="G42" s="162"/>
+      <c r="H42" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I42" s="174"/>
+      <c r="I42" s="163"/>
       <c r="J42" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K42" s="173"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="174"/>
-      <c r="N42" s="174" t="s">
+      <c r="K42" s="162"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O42" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P42" s="160"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="168"/>
-      <c r="S42" s="169">
+      <c r="P42" s="152"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="169">
+      <c r="T42" s="157"/>
+      <c r="U42" s="157"/>
+      <c r="V42" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31875,51 +31872,51 @@
       <c r="A43" s="107">
         <v>43</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="173" t="s">
+      <c r="G43" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H43" s="174" t="s">
+      <c r="H43" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I43" s="174"/>
+      <c r="I43" s="163"/>
       <c r="J43" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K43" s="173"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="174" t="s">
+      <c r="K43" s="162"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N43" s="174" t="s">
+      <c r="N43" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O43" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P43" s="160"/>
-      <c r="Q43" s="168" t="s">
+      <c r="P43" s="152"/>
+      <c r="Q43" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R43" s="168"/>
-      <c r="S43" s="169">
+      <c r="R43" s="157"/>
+      <c r="S43" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168" t="s">
+      <c r="T43" s="157"/>
+      <c r="U43" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V43" s="169">
+      <c r="V43" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -31932,47 +31929,47 @@
       <c r="A44" s="107">
         <v>44</v>
       </c>
-      <c r="B44" s="173"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="174" t="s">
+      <c r="B44" s="162"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F44" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G44" s="173"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="173"/>
-      <c r="L44" s="154" t="s">
+      <c r="K44" s="162"/>
+      <c r="L44" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M44" s="174" t="s">
+      <c r="M44" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N44" s="174"/>
+      <c r="N44" s="163"/>
       <c r="O44" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P44" s="160" t="s">
+      <c r="P44" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="169">
+      <c r="Q44" s="157"/>
+      <c r="R44" s="157"/>
+      <c r="S44" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="169">
+      <c r="T44" s="157"/>
+      <c r="U44" s="157"/>
+      <c r="V44" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -31985,43 +31982,43 @@
       <c r="A45" s="107">
         <v>45</v>
       </c>
-      <c r="B45" s="173"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174" t="s">
+      <c r="B45" s="162"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F45" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G45" s="173"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
       <c r="J45" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K45" s="173"/>
-      <c r="L45" s="154" t="s">
+      <c r="K45" s="162"/>
+      <c r="L45" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M45" s="174"/>
-      <c r="N45" s="174"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
       <c r="O45" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P45" s="160"/>
-      <c r="Q45" s="168"/>
-      <c r="R45" s="168"/>
-      <c r="S45" s="169">
+      <c r="P45" s="152"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T45" s="168"/>
-      <c r="U45" s="168"/>
-      <c r="V45" s="169">
+      <c r="T45" s="157"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32034,51 +32031,51 @@
       <c r="A46" s="107">
         <v>46</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="174" t="s">
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F46" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="173" t="s">
+      <c r="G46" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H46" s="174" t="s">
+      <c r="H46" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I46" s="174"/>
+      <c r="I46" s="163"/>
       <c r="J46" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K46" s="173"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="174" t="s">
+      <c r="K46" s="162"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N46" s="174" t="s">
+      <c r="N46" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O46" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="168"/>
-      <c r="S46" s="169">
+      <c r="P46" s="152"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T46" s="168"/>
-      <c r="U46" s="168" t="s">
+      <c r="T46" s="157"/>
+      <c r="U46" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V46" s="169">
+      <c r="V46" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -32091,43 +32088,43 @@
       <c r="A47" s="107">
         <v>47</v>
       </c>
-      <c r="B47" s="173"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="174" t="s">
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F47" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G47" s="173" t="s">
+      <c r="G47" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
       <c r="J47" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K47" s="173"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="174"/>
-      <c r="N47" s="174"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="163"/>
+      <c r="N47" s="163"/>
       <c r="O47" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="168"/>
-      <c r="R47" s="168"/>
-      <c r="S47" s="169">
+      <c r="P47" s="152"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T47" s="168"/>
-      <c r="U47" s="168"/>
-      <c r="V47" s="169">
+      <c r="T47" s="157"/>
+      <c r="U47" s="157"/>
+      <c r="V47" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32140,55 +32137,55 @@
       <c r="A48" s="107">
         <v>48</v>
       </c>
-      <c r="B48" s="173"/>
-      <c r="C48" s="174" t="s">
+      <c r="B48" s="162"/>
+      <c r="C48" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D48" s="174"/>
-      <c r="E48" s="174" t="s">
+      <c r="D48" s="163"/>
+      <c r="E48" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F48" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G48" s="173"/>
-      <c r="H48" s="174" t="s">
+      <c r="G48" s="162"/>
+      <c r="H48" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I48" s="174" t="s">
+      <c r="I48" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J48" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K48" s="173"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="174" t="s">
+      <c r="K48" s="162"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N48" s="174" t="s">
+      <c r="N48" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O48" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="168" t="s">
+      <c r="P48" s="152"/>
+      <c r="Q48" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R48" s="168" t="s">
+      <c r="R48" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="S48" s="169">
+      <c r="S48" s="158">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T48" s="168"/>
-      <c r="U48" s="168"/>
-      <c r="V48" s="169">
+      <c r="T48" s="157"/>
+      <c r="U48" s="157"/>
+      <c r="V48" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32201,45 +32198,45 @@
       <c r="A49" s="107">
         <v>49</v>
       </c>
-      <c r="B49" s="173"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174" t="s">
+      <c r="B49" s="162"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F49" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="173" t="s">
+      <c r="G49" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
       <c r="J49" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K49" s="173"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="174"/>
-      <c r="N49" s="174"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
       <c r="O49" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P49" s="160" t="s">
+      <c r="P49" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q49" s="168"/>
-      <c r="R49" s="168"/>
-      <c r="S49" s="169">
+      <c r="Q49" s="157"/>
+      <c r="R49" s="157"/>
+      <c r="S49" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="169">
+      <c r="T49" s="157"/>
+      <c r="U49" s="157"/>
+      <c r="V49" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32252,49 +32249,49 @@
       <c r="A50" s="107">
         <v>50</v>
       </c>
-      <c r="B50" s="173" t="s">
+      <c r="B50" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C50" s="174" t="s">
+      <c r="C50" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="D50" s="174"/>
-      <c r="E50" s="174"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G50" s="173"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="163"/>
       <c r="J50" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K50" s="173"/>
-      <c r="L50" s="154" t="s">
+      <c r="K50" s="162"/>
+      <c r="L50" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M50" s="174" t="s">
+      <c r="M50" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N50" s="174"/>
+      <c r="N50" s="163"/>
       <c r="O50" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P50" s="160" t="s">
+      <c r="P50" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q50" s="168"/>
-      <c r="R50" s="168"/>
-      <c r="S50" s="169">
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T50" s="168"/>
-      <c r="U50" s="168"/>
-      <c r="V50" s="169">
+      <c r="T50" s="157"/>
+      <c r="U50" s="157"/>
+      <c r="V50" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32307,41 +32304,41 @@
       <c r="A51" s="107">
         <v>51</v>
       </c>
-      <c r="B51" s="173"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
-      <c r="E51" s="174"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="163"/>
       <c r="F51" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="173"/>
-      <c r="H51" s="174" t="s">
+      <c r="G51" s="162"/>
+      <c r="H51" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I51" s="174"/>
+      <c r="I51" s="163"/>
       <c r="J51" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K51" s="173"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="174"/>
-      <c r="N51" s="174"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="163"/>
+      <c r="N51" s="163"/>
       <c r="O51" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P51" s="160"/>
-      <c r="Q51" s="168"/>
-      <c r="R51" s="168"/>
-      <c r="S51" s="169">
+      <c r="P51" s="152"/>
+      <c r="Q51" s="157"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T51" s="168"/>
-      <c r="U51" s="168"/>
-      <c r="V51" s="169">
+      <c r="T51" s="157"/>
+      <c r="U51" s="157"/>
+      <c r="V51" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32354,45 +32351,45 @@
       <c r="A52" s="107">
         <v>52</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
       <c r="F52" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="173" t="s">
+      <c r="G52" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
       <c r="J52" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K52" s="173"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="174" t="s">
+      <c r="K52" s="162"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N52" s="174"/>
+      <c r="N52" s="163"/>
       <c r="O52" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P52" s="160"/>
-      <c r="Q52" s="168" t="s">
+      <c r="P52" s="152"/>
+      <c r="Q52" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R52" s="168"/>
-      <c r="S52" s="169">
+      <c r="R52" s="157"/>
+      <c r="S52" s="158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T52" s="168"/>
-      <c r="U52" s="168"/>
-      <c r="V52" s="169">
+      <c r="T52" s="157"/>
+      <c r="U52" s="157"/>
+      <c r="V52" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32405,51 +32402,51 @@
       <c r="A53" s="107">
         <v>53</v>
       </c>
-      <c r="B53" s="173"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174" t="s">
+      <c r="B53" s="162"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F53" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G53" s="173" t="s">
+      <c r="G53" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174" t="s">
+      <c r="H53" s="163"/>
+      <c r="I53" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="J53" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K53" s="173" t="s">
+      <c r="K53" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L53" s="154" t="s">
+      <c r="L53" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M53" s="174"/>
-      <c r="N53" s="174"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
       <c r="O53" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P53" s="160" t="s">
+      <c r="P53" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q53" s="168"/>
-      <c r="R53" s="168"/>
-      <c r="S53" s="169">
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T53" s="168"/>
-      <c r="U53" s="168"/>
-      <c r="V53" s="169">
+      <c r="T53" s="157"/>
+      <c r="U53" s="157"/>
+      <c r="V53" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32462,41 +32459,41 @@
       <c r="A54" s="107">
         <v>54</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
       <c r="F54" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="173"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
       <c r="J54" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K54" s="173"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="174" t="s">
+      <c r="K54" s="162"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N54" s="174"/>
+      <c r="N54" s="163"/>
       <c r="O54" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P54" s="160"/>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="168"/>
-      <c r="S54" s="169">
+      <c r="P54" s="152"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T54" s="168"/>
-      <c r="U54" s="168"/>
-      <c r="V54" s="169">
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32509,47 +32506,47 @@
       <c r="A55" s="107">
         <v>55</v>
       </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174" t="s">
+      <c r="B55" s="162"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F55" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G55" s="173"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
       <c r="J55" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K55" s="173" t="s">
+      <c r="K55" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L55" s="154"/>
-      <c r="M55" s="174" t="s">
+      <c r="L55" s="146"/>
+      <c r="M55" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N55" s="174" t="s">
+      <c r="N55" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O55" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P55" s="160"/>
-      <c r="Q55" s="168"/>
-      <c r="R55" s="168"/>
-      <c r="S55" s="169">
+      <c r="P55" s="152"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T55" s="168"/>
-      <c r="U55" s="168"/>
-      <c r="V55" s="169">
+      <c r="T55" s="157"/>
+      <c r="U55" s="157"/>
+      <c r="V55" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32562,49 +32559,49 @@
       <c r="A56" s="107">
         <v>56</v>
       </c>
-      <c r="B56" s="173"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
-      <c r="E56" s="174"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
       <c r="F56" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="173" t="s">
+      <c r="G56" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H56" s="174" t="s">
+      <c r="H56" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I56" s="174"/>
+      <c r="I56" s="163"/>
       <c r="J56" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K56" s="173" t="s">
+      <c r="K56" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="L56" s="154"/>
-      <c r="M56" s="174" t="s">
+      <c r="L56" s="146"/>
+      <c r="M56" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N56" s="174" t="s">
+      <c r="N56" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="O56" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="168"/>
-      <c r="R56" s="168"/>
-      <c r="S56" s="169">
+      <c r="P56" s="152"/>
+      <c r="Q56" s="157"/>
+      <c r="R56" s="157"/>
+      <c r="S56" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T56" s="168"/>
-      <c r="U56" s="168"/>
-      <c r="V56" s="169">
+      <c r="T56" s="157"/>
+      <c r="U56" s="157"/>
+      <c r="V56" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32617,49 +32614,49 @@
       <c r="A57" s="107">
         <v>58</v>
       </c>
-      <c r="B57" s="173" t="s">
+      <c r="B57" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="174"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
       <c r="F57" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G57" s="173" t="s">
+      <c r="G57" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H57" s="174" t="s">
+      <c r="H57" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I57" s="174"/>
+      <c r="I57" s="163"/>
       <c r="J57" s="108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K57" s="173"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="174"/>
-      <c r="N57" s="174"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="163"/>
+      <c r="N57" s="163"/>
       <c r="O57" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P57" s="160" t="s">
+      <c r="P57" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q57" s="168"/>
-      <c r="R57" s="168"/>
-      <c r="S57" s="169">
+      <c r="Q57" s="157"/>
+      <c r="R57" s="157"/>
+      <c r="S57" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T57" s="168"/>
-      <c r="U57" s="168" t="s">
+      <c r="T57" s="157"/>
+      <c r="U57" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="V57" s="169">
+      <c r="V57" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -32672,51 +32669,51 @@
       <c r="A58" s="107">
         <v>59</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174" t="s">
+      <c r="B58" s="162"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="E58" s="174" t="s">
+      <c r="E58" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F58" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G58" s="173" t="s">
+      <c r="G58" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
       <c r="J58" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K58" s="173"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="146"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
       <c r="O58" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P58" s="160"/>
-      <c r="Q58" s="168" t="s">
+      <c r="P58" s="152"/>
+      <c r="Q58" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="R58" s="168" t="s">
+      <c r="R58" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="S58" s="169">
+      <c r="S58" s="158">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T58" s="168" t="s">
+      <c r="T58" s="157" t="s">
         <v>1017</v>
       </c>
-      <c r="U58" s="168"/>
-      <c r="V58" s="169">
+      <c r="U58" s="157"/>
+      <c r="V58" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -32729,43 +32726,43 @@
       <c r="A59" s="107">
         <v>60</v>
       </c>
-      <c r="B59" s="173"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
       <c r="F59" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="173"/>
-      <c r="H59" s="174" t="s">
+      <c r="G59" s="162"/>
+      <c r="H59" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I59" s="174"/>
+      <c r="I59" s="163"/>
       <c r="J59" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K59" s="173"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="146"/>
+      <c r="M59" s="163"/>
+      <c r="N59" s="163"/>
       <c r="O59" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P59" s="160" t="s">
+      <c r="P59" s="152" t="s">
         <v>1017</v>
       </c>
-      <c r="Q59" s="168"/>
-      <c r="R59" s="168"/>
-      <c r="S59" s="169">
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T59" s="168"/>
-      <c r="U59" s="168"/>
-      <c r="V59" s="169">
+      <c r="T59" s="157"/>
+      <c r="U59" s="157"/>
+      <c r="V59" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32778,43 +32775,43 @@
       <c r="A60" s="107">
         <v>61</v>
       </c>
-      <c r="B60" s="173"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
-      <c r="E60" s="174"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="163"/>
       <c r="F60" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="173"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="174"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="163"/>
+      <c r="I60" s="163"/>
       <c r="J60" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="173"/>
-      <c r="L60" s="154" t="s">
+      <c r="K60" s="162"/>
+      <c r="L60" s="146" t="s">
         <v>1017</v>
       </c>
-      <c r="M60" s="174" t="s">
+      <c r="M60" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N60" s="174"/>
+      <c r="N60" s="163"/>
       <c r="O60" s="109">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="168"/>
-      <c r="R60" s="168"/>
-      <c r="S60" s="169">
+      <c r="P60" s="152"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T60" s="168"/>
-      <c r="U60" s="168"/>
-      <c r="V60" s="169">
+      <c r="T60" s="157"/>
+      <c r="U60" s="157"/>
+      <c r="V60" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32827,45 +32824,45 @@
       <c r="A61" s="107">
         <v>62</v>
       </c>
-      <c r="B61" s="173"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="174" t="s">
+      <c r="B61" s="162"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="163" t="s">
         <v>1017</v>
       </c>
       <c r="F61" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G61" s="173"/>
-      <c r="H61" s="174" t="s">
+      <c r="G61" s="162"/>
+      <c r="H61" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="I61" s="174"/>
+      <c r="I61" s="163"/>
       <c r="J61" s="108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K61" s="173"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="174" t="s">
+      <c r="K61" s="162"/>
+      <c r="L61" s="146"/>
+      <c r="M61" s="163" t="s">
         <v>1017</v>
       </c>
-      <c r="N61" s="174"/>
+      <c r="N61" s="163"/>
       <c r="O61" s="109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P61" s="160"/>
-      <c r="Q61" s="168"/>
-      <c r="R61" s="168"/>
-      <c r="S61" s="169">
+      <c r="P61" s="152"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T61" s="168"/>
-      <c r="U61" s="168"/>
-      <c r="V61" s="169">
+      <c r="T61" s="157"/>
+      <c r="U61" s="157"/>
+      <c r="V61" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32878,47 +32875,47 @@
       <c r="A62" s="107">
         <v>63</v>
       </c>
-      <c r="B62" s="175"/>
-      <c r="C62" s="176" t="s">
+      <c r="B62" s="164"/>
+      <c r="C62" s="165" t="s">
         <v>1017</v>
       </c>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176" t="s">
+      <c r="D62" s="165"/>
+      <c r="E62" s="165" t="s">
         <v>1017</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G62" s="175"/>
-      <c r="H62" s="176"/>
-      <c r="I62" s="176"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
       <c r="J62" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="175"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="176"/>
-      <c r="N62" s="176" t="s">
+      <c r="K62" s="164"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="165"/>
+      <c r="N62" s="165" t="s">
         <v>1017</v>
       </c>
       <c r="O62" s="111">
         <f>COUNTIF(K62:N62,"X")</f>
         <v>1</v>
       </c>
-      <c r="P62" s="161" t="s">
+      <c r="P62" s="153" t="s">
         <v>1017</v>
       </c>
-      <c r="Q62" s="170"/>
-      <c r="R62" s="170"/>
-      <c r="S62" s="171">
+      <c r="Q62" s="159"/>
+      <c r="R62" s="159"/>
+      <c r="S62" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T62" s="170"/>
-      <c r="U62" s="170"/>
-      <c r="V62" s="171">
+      <c r="T62" s="159"/>
+      <c r="U62" s="159"/>
+      <c r="V62" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -32972,7 +32969,7 @@
         <f>COUNTIF(K4:K62,"X")</f>
         <v>14</v>
       </c>
-      <c r="L63" s="156">
+      <c r="L63" s="148">
         <f>COUNTIF(L4:L62,"X")</f>
         <v>12</v>
       </c>
@@ -32988,31 +32985,31 @@
         <f>COUNTIF(O4:O62,1)+COUNTIF(O4:O62,2)+COUNTIF(O4:O62,3)+COUNTIF(O4:O62,4)</f>
         <v>36</v>
       </c>
-      <c r="P63" s="162">
+      <c r="P63" s="154">
         <f>COUNTIF(P4:P62,"X")</f>
         <v>20</v>
       </c>
-      <c r="Q63" s="162">
+      <c r="Q63" s="154">
         <f>COUNTIF(Q4:Q62,"X")</f>
         <v>15</v>
       </c>
-      <c r="R63" s="162">
+      <c r="R63" s="154">
         <f>COUNTIF(R4:R62,"X")</f>
         <v>3</v>
       </c>
-      <c r="S63" s="172">
+      <c r="S63" s="161">
         <f>COUNTIF(S4:S62,"1")+COUNTIF(S4:S62,"2")</f>
         <v>16</v>
       </c>
-      <c r="T63" s="162">
+      <c r="T63" s="154">
         <f t="shared" ref="T63:U63" si="6">COUNTIF(T4:T62,"X")</f>
         <v>9</v>
       </c>
-      <c r="U63" s="162">
+      <c r="U63" s="154">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="V63" s="172">
+      <c r="V63" s="161">
         <f>COUNTIF(V4:V62,"1")+COUNTIF(V4:V62,"2")</f>
         <v>15</v>
       </c>
@@ -33022,15 +33019,15 @@
       </c>
     </row>
     <row r="68" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="201" t="s">
+      <c r="E68" s="190" t="s">
         <v>1027</v>
       </c>
-      <c r="F68" s="202"/>
-      <c r="G68" s="202"/>
-      <c r="H68" s="202"/>
-      <c r="I68" s="202"/>
-      <c r="J68" s="202"/>
-      <c r="K68" s="203"/>
+      <c r="F68" s="191"/>
+      <c r="G68" s="191"/>
+      <c r="H68" s="191"/>
+      <c r="I68" s="191"/>
+      <c r="J68" s="191"/>
+      <c r="K68" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/study-steps-data.xlsx
+++ b/study-steps-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopo/Desktop/smells-replication-package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7461E8-64A9-7D43-A794-B3FB7A82CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9F78A-08F1-1346-8A69-8C72242AA53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR" sheetId="5" r:id="rId1"/>
@@ -3916,25 +3916,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4076,6 +4057,25 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4334,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D57B18-699D-4A1C-9136-8BFBF72CB678}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4346,14 +4346,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="108" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -4716,10 +4716,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="P36" sqref="P36"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4742,20 +4742,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="109" t="s">
         <v>1026</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
@@ -14680,10 +14680,10 @@
   </sheetPr>
   <dimension ref="A1:K917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="P36" sqref="P36"/>
-      <selection pane="topRight" activeCell="P36" sqref="P36"/>
+      <selection activeCell="C71" sqref="C71"/>
+      <selection pane="topRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14701,17 +14701,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="109" t="s">
         <v>1015</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
       <c r="J1" s="58"/>
       <c r="K1" s="58"/>
     </row>
@@ -19254,8 +19254,8 @@
   </sheetPr>
   <dimension ref="A1:M1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="A38" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19268,16 +19268,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="111" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="59"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
@@ -19290,8 +19290,8 @@
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="40"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -19300,28 +19300,28 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="62" t="s">
         <v>515</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>516</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="63" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="64" t="s">
         <v>1027</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>1028</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="65" t="s">
         <v>517</v>
       </c>
       <c r="I3" s="39"/>
@@ -19331,28 +19331,28 @@
       <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A4" s="73">
+      <c r="A4" s="66">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="70" t="s">
         <v>521</v>
       </c>
-      <c r="F4" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H4" s="72">
+      <c r="F4" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H4" s="65">
         <f>IF(F4=G4,1,0)</f>
         <v>1</v>
       </c>
@@ -19363,26 +19363,26 @@
       <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="F5" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H5" s="72">
+      <c r="F5" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H5" s="65">
         <f t="shared" ref="H5:H68" si="0">IF(F5=G5,1,0)</f>
         <v>1</v>
       </c>
@@ -19393,26 +19393,26 @@
       <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H6" s="72">
+      <c r="F6" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H6" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19423,26 +19423,26 @@
       <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="77" t="s">
         <v>531</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="78" t="s">
         <v>533</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H7" s="72">
+      <c r="F7" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H7" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19453,26 +19453,26 @@
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" s="73">
+      <c r="A8" s="66">
         <v>2</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="67" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="F8" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H8" s="72">
+      <c r="F8" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H8" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19483,26 +19483,26 @@
       <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="73" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="74" t="s">
         <v>539</v>
       </c>
-      <c r="F9" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H9" s="72">
+      <c r="F9" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H9" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19513,26 +19513,26 @@
       <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="73" t="s">
         <v>537</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="72" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="74" t="s">
         <v>541</v>
       </c>
-      <c r="F10" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H10" s="72">
+      <c r="F10" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H10" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19543,24 +19543,24 @@
       <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="74" t="s">
         <v>544</v>
       </c>
-      <c r="F11" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H11" s="72">
+      <c r="F11" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H11" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19571,24 +19571,24 @@
       <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="74" t="s">
         <v>547</v>
       </c>
-      <c r="F12" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H12" s="72">
+      <c r="F12" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H12" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19599,24 +19599,24 @@
       <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="F13" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H13" s="72">
+      <c r="F13" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H13" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19627,22 +19627,22 @@
       <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="79" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="74" t="s">
         <v>552</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H14" s="72">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19653,22 +19653,22 @@
       <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="76" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="77" t="s">
         <v>554</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="76" t="s">
         <v>555</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H15" s="72">
+      <c r="E15" s="78"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H15" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19679,26 +19679,26 @@
       <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A16" s="73">
+      <c r="A16" s="66">
         <v>3</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="67" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="F16" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G16" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H16" s="72">
+      <c r="F16" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H16" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19709,26 +19709,26 @@
       <c r="M16" s="39"/>
     </row>
     <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76" t="s">
         <v>526</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="77" t="s">
         <v>557</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="F17" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H17" s="72">
+      <c r="F17" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H17" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19739,26 +19739,26 @@
       <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A18" s="73">
+      <c r="A18" s="66">
         <v>4</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="67" t="s">
         <v>545</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>559</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H18" s="72">
+      <c r="E18" s="70"/>
+      <c r="F18" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H18" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19768,27 +19768,27 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79" t="s">
+    <row r="19" spans="1:13" ht="91" x14ac:dyDescent="0.2">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="73" t="s">
         <v>561</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H19" s="72">
+      <c r="F19" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H19" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19799,26 +19799,26 @@
       <c r="M19" s="39"/>
     </row>
     <row r="20" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="73" t="s">
         <v>563</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="74" t="s">
         <v>564</v>
       </c>
-      <c r="F20" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G20" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H20" s="72">
+      <c r="F20" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H20" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19829,26 +19829,26 @@
       <c r="M20" s="39"/>
     </row>
     <row r="21" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="77" t="s">
         <v>565</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="78" t="s">
         <v>566</v>
       </c>
-      <c r="F21" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H21" s="72">
+      <c r="F21" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H21" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19859,26 +19859,26 @@
       <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A22" s="73">
+      <c r="A22" s="66">
         <v>5</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="74" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="70" t="s">
         <v>568</v>
       </c>
-      <c r="F22" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H22" s="72">
+      <c r="F22" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H22" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19889,24 +19889,24 @@
       <c r="M22" s="39"/>
     </row>
     <row r="23" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="79" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="F23" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H23" s="72">
+      <c r="F23" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H23" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19917,24 +19917,24 @@
       <c r="M23" s="39"/>
     </row>
     <row r="24" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="79" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="72" t="s">
         <v>571</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="F24" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H24" s="72">
+      <c r="F24" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H24" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19945,24 +19945,24 @@
       <c r="M24" s="39"/>
     </row>
     <row r="25" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="86" t="s">
+      <c r="C25" s="73"/>
+      <c r="D25" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="F25" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H25" s="72">
+      <c r="F25" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H25" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19973,22 +19973,22 @@
       <c r="M25" s="39"/>
     </row>
     <row r="26" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="74" t="s">
         <v>576</v>
       </c>
-      <c r="F26" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72">
+      <c r="F26" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19999,24 +19999,24 @@
       <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="83" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="78" t="s">
         <v>577</v>
       </c>
-      <c r="F27" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H27" s="72">
+      <c r="F27" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H27" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20027,28 +20027,28 @@
       <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A28" s="73">
+      <c r="A28" s="66">
         <v>6</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="70" t="s">
         <v>579</v>
       </c>
-      <c r="F28" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H28" s="72">
+      <c r="F28" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H28" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20059,26 +20059,26 @@
       <c r="M28" s="39"/>
     </row>
     <row r="29" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="73" t="s">
         <v>584</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="F29" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H29" s="72">
+      <c r="F29" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H29" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20089,26 +20089,26 @@
       <c r="M29" s="39"/>
     </row>
     <row r="30" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="79" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="73" t="s">
         <v>587</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="72" t="s">
         <v>588</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="F30" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H30" s="72">
+      <c r="F30" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H30" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20119,26 +20119,26 @@
       <c r="M30" s="39"/>
     </row>
     <row r="31" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="79" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="73" t="s">
         <v>590</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="F31" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H31" s="72">
+      <c r="F31" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H31" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20149,24 +20149,24 @@
       <c r="M31" s="39"/>
     </row>
     <row r="32" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="86" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="73" t="s">
         <v>593</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="F32" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72">
+      <c r="F32" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20177,26 +20177,26 @@
       <c r="M32" s="39"/>
     </row>
     <row r="33" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="77" t="s">
         <v>597</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="F33" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H33" s="72">
+      <c r="F33" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H33" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20207,28 +20207,28 @@
       <c r="M33" s="39"/>
     </row>
     <row r="34" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A34" s="73">
+      <c r="A34" s="66">
         <v>8</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="68" t="s">
         <v>600</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="F34" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H34" s="72">
+      <c r="F34" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H34" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20239,24 +20239,24 @@
       <c r="M34" s="39"/>
     </row>
     <row r="35" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="73"/>
+      <c r="D35" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="F35" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H35" s="72">
+      <c r="F35" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H35" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20267,26 +20267,26 @@
       <c r="M35" s="39"/>
     </row>
     <row r="36" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="73" t="s">
         <v>605</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="F36" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H36" s="72">
+      <c r="F36" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H36" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20297,26 +20297,26 @@
       <c r="M36" s="39"/>
     </row>
     <row r="37" spans="1:13" ht="260" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="86" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="74" t="s">
         <v>608</v>
       </c>
-      <c r="F37" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H37" s="72">
+      <c r="F37" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H37" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20327,22 +20327,22 @@
       <c r="M37" s="39"/>
     </row>
     <row r="38" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="89" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="82" t="s">
         <v>592</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="83" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="76" t="s">
         <v>609</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="F38" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72">
+      <c r="F38" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20353,28 +20353,28 @@
       <c r="M38" s="39"/>
     </row>
     <row r="39" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A39" s="73">
+      <c r="A39" s="66">
         <v>10</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="67" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="68" t="s">
         <v>611</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="70" t="s">
         <v>612</v>
       </c>
-      <c r="F39" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H39" s="72">
+      <c r="F39" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H39" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20385,24 +20385,24 @@
       <c r="M39" s="39"/>
     </row>
     <row r="40" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="73" t="s">
         <v>613</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="74" t="s">
         <v>614</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H40" s="72">
+      <c r="F40" s="64"/>
+      <c r="G40" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H40" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20413,26 +20413,26 @@
       <c r="M40" s="39"/>
     </row>
     <row r="41" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="72" t="s">
         <v>615</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="73" t="s">
         <v>616</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="74" t="s">
         <v>618</v>
       </c>
-      <c r="F41" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H41" s="72">
+      <c r="F41" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H41" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20443,26 +20443,26 @@
       <c r="M41" s="39"/>
     </row>
     <row r="42" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79" t="s">
+      <c r="A42" s="71"/>
+      <c r="B42" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="73" t="s">
         <v>619</v>
       </c>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="F42" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G42" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H42" s="72">
+      <c r="F42" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H42" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20473,26 +20473,26 @@
       <c r="M42" s="39"/>
     </row>
     <row r="43" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83" t="s">
+      <c r="A43" s="75"/>
+      <c r="B43" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="77" t="s">
         <v>622</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="78" t="s">
         <v>623</v>
       </c>
-      <c r="F43" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H43" s="72">
+      <c r="F43" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H43" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20503,26 +20503,26 @@
       <c r="M43" s="39"/>
     </row>
     <row r="44" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A44" s="73">
+      <c r="A44" s="66">
         <v>12</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="74" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="F44" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G44" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H44" s="72">
+      <c r="F44" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H44" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20533,24 +20533,24 @@
       <c r="M44" s="39"/>
     </row>
     <row r="45" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="79" t="s">
+      <c r="C45" s="73"/>
+      <c r="D45" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="74" t="s">
         <v>631</v>
       </c>
-      <c r="F45" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H45" s="72">
+      <c r="F45" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H45" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20561,26 +20561,26 @@
       <c r="M45" s="39"/>
     </row>
     <row r="46" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="79" t="s">
+      <c r="A46" s="71"/>
+      <c r="B46" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="F46" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H46" s="72">
+      <c r="F46" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H46" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20591,26 +20591,26 @@
       <c r="M46" s="39"/>
     </row>
     <row r="47" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="77" t="s">
         <v>634</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="E47" s="85" t="s">
+      <c r="E47" s="78" t="s">
         <v>635</v>
       </c>
-      <c r="F47" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H47" s="72">
+      <c r="F47" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G47" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H47" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20621,28 +20621,28 @@
       <c r="M47" s="39"/>
     </row>
     <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A48" s="73">
+      <c r="A48" s="66">
         <v>13</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="68" t="s">
         <v>636</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="F48" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G48" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H48" s="72">
+      <c r="F48" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H48" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20653,26 +20653,26 @@
       <c r="M48" s="39"/>
     </row>
     <row r="49" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="73" t="s">
         <v>638</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="74" t="s">
         <v>639</v>
       </c>
-      <c r="F49" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G49" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H49" s="72">
+      <c r="F49" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H49" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20683,24 +20683,24 @@
       <c r="M49" s="39"/>
     </row>
     <row r="50" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="83" t="s">
+      <c r="C50" s="77"/>
+      <c r="D50" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="E50" s="85" t="s">
+      <c r="E50" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="F50" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G50" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H50" s="72">
+      <c r="F50" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H50" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20711,26 +20711,26 @@
       <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A51" s="73">
+      <c r="A51" s="66">
         <v>15</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="74" t="s">
+      <c r="C51" s="68"/>
+      <c r="D51" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="F51" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G51" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H51" s="72">
+      <c r="F51" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H51" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20741,24 +20741,24 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="86" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="79" t="s">
+      <c r="C52" s="73"/>
+      <c r="D52" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="F52" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G52" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H52" s="72">
+      <c r="F52" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H52" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20769,26 +20769,26 @@
       <c r="M52" s="39"/>
     </row>
     <row r="53" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="73" t="s">
         <v>645</v>
       </c>
-      <c r="D53" s="79" t="s">
+      <c r="D53" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="F53" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H53" s="72">
+      <c r="F53" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G53" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H53" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20799,26 +20799,26 @@
       <c r="M53" s="39"/>
     </row>
     <row r="54" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="74" t="s">
         <v>648</v>
       </c>
-      <c r="F54" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G54" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H54" s="72">
+      <c r="F54" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G54" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H54" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20829,26 +20829,26 @@
       <c r="M54" s="39"/>
     </row>
     <row r="55" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="73" t="s">
         <v>649</v>
       </c>
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="74" t="s">
         <v>650</v>
       </c>
-      <c r="F55" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G55" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H55" s="72">
+      <c r="F55" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G55" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H55" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20859,24 +20859,24 @@
       <c r="M55" s="39"/>
     </row>
     <row r="56" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83" t="s">
+      <c r="A56" s="75"/>
+      <c r="B56" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="83" t="s">
+      <c r="C56" s="77"/>
+      <c r="D56" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="E56" s="85" t="s">
+      <c r="E56" s="78" t="s">
         <v>651</v>
       </c>
-      <c r="F56" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G56" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H56" s="72">
+      <c r="F56" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H56" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20887,28 +20887,28 @@
       <c r="M56" s="39"/>
     </row>
     <row r="57" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A57" s="73">
+      <c r="A57" s="66">
         <v>16</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="68" t="s">
         <v>652</v>
       </c>
-      <c r="D57" s="74" t="s">
+      <c r="D57" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E57" s="77" t="s">
+      <c r="E57" s="70" t="s">
         <v>653</v>
       </c>
-      <c r="F57" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H57" s="72">
+      <c r="F57" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G57" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H57" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20919,26 +20919,26 @@
       <c r="M57" s="39"/>
     </row>
     <row r="58" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="79" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="C58" s="80" t="s">
+      <c r="C58" s="73" t="s">
         <v>654</v>
       </c>
-      <c r="D58" s="79" t="s">
+      <c r="D58" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="74" t="s">
         <v>655</v>
       </c>
-      <c r="F58" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G58" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H58" s="72">
+      <c r="F58" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G58" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H58" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20949,24 +20949,24 @@
       <c r="M58" s="39"/>
     </row>
     <row r="59" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="69" t="s">
+      <c r="C59" s="83"/>
+      <c r="D59" s="62" t="s">
         <v>620</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="F59" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G59" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H59" s="72">
+      <c r="F59" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G59" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H59" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20977,28 +20977,28 @@
       <c r="M59" s="39"/>
     </row>
     <row r="60" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A60" s="78">
+      <c r="A60" s="71">
         <v>17</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="73" t="s">
         <v>657</v>
       </c>
-      <c r="D60" s="79" t="s">
+      <c r="D60" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="74" t="s">
         <v>658</v>
       </c>
-      <c r="F60" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G60" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H60" s="72">
+      <c r="F60" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H60" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21008,25 +21008,25 @@
       <c r="L60" s="39"/>
       <c r="M60" s="39"/>
     </row>
-    <row r="61" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="79" t="s">
+    <row r="61" spans="1:13" ht="143" x14ac:dyDescent="0.2">
+      <c r="A61" s="71"/>
+      <c r="B61" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="79" t="s">
+      <c r="C61" s="73"/>
+      <c r="D61" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E61" s="81" t="s">
+      <c r="E61" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="F61" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G61" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H61" s="72">
+      <c r="F61" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H61" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21037,22 +21037,22 @@
       <c r="M61" s="39"/>
     </row>
     <row r="62" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A62" s="78"/>
-      <c r="B62" s="79" t="s">
+      <c r="A62" s="71"/>
+      <c r="B62" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="79" t="s">
+      <c r="C62" s="73"/>
+      <c r="D62" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="74" t="s">
         <v>660</v>
       </c>
-      <c r="F62" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="72">
+      <c r="F62" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G62" s="64"/>
+      <c r="H62" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21063,24 +21063,24 @@
       <c r="M62" s="39"/>
     </row>
     <row r="63" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
-      <c r="B63" s="79" t="s">
+      <c r="A63" s="71"/>
+      <c r="B63" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="73" t="s">
         <v>661</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="72" t="s">
         <v>662</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="74" t="s">
         <v>663</v>
       </c>
-      <c r="F63" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G63" s="71"/>
-      <c r="H63" s="72">
+      <c r="F63" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21091,24 +21091,24 @@
       <c r="M63" s="39"/>
     </row>
     <row r="64" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
-      <c r="B64" s="79" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="79" t="s">
+      <c r="C64" s="73"/>
+      <c r="D64" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="74" t="s">
         <v>664</v>
       </c>
-      <c r="F64" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G64" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H64" s="72">
+      <c r="F64" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G64" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H64" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21119,26 +21119,26 @@
       <c r="M64" s="39"/>
     </row>
     <row r="65" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
-      <c r="B65" s="79" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="73" t="s">
         <v>665</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="74" t="s">
         <v>666</v>
       </c>
-      <c r="F65" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H65" s="72">
+      <c r="F65" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H65" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21149,24 +21149,24 @@
       <c r="M65" s="39"/>
     </row>
     <row r="66" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
-      <c r="B66" s="79" t="s">
+      <c r="A66" s="71"/>
+      <c r="B66" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="E66" s="81" t="s">
+      <c r="E66" s="74" t="s">
         <v>667</v>
       </c>
-      <c r="F66" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H66" s="72">
+      <c r="F66" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H66" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21177,24 +21177,24 @@
       <c r="M66" s="39"/>
     </row>
     <row r="67" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
-      <c r="B67" s="79" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="73" t="s">
         <v>668</v>
       </c>
-      <c r="D67" s="79" t="s">
+      <c r="D67" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E67" s="81"/>
-      <c r="F67" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H67" s="72">
+      <c r="E67" s="74"/>
+      <c r="F67" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G67" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H67" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21205,26 +21205,26 @@
       <c r="M67" s="39"/>
     </row>
     <row r="68" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
-      <c r="B68" s="79" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="73" t="s">
         <v>669</v>
       </c>
-      <c r="D68" s="86" t="s">
+      <c r="D68" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="74" t="s">
         <v>670</v>
       </c>
-      <c r="F68" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G68" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H68" s="72">
+      <c r="F68" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G68" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H68" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21235,26 +21235,26 @@
       <c r="M68" s="39"/>
     </row>
     <row r="69" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A69" s="78"/>
-      <c r="B69" s="79" t="s">
+      <c r="A69" s="71"/>
+      <c r="B69" s="72" t="s">
         <v>582</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="73" t="s">
         <v>669</v>
       </c>
-      <c r="D69" s="79" t="s">
+      <c r="D69" s="72" t="s">
         <v>583</v>
       </c>
-      <c r="E69" s="81" t="s">
+      <c r="E69" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="F69" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H69" s="72">
+      <c r="F69" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G69" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H69" s="65">
         <f t="shared" ref="H69:H132" si="1">IF(F69=G69,1,0)</f>
         <v>1</v>
       </c>
@@ -21265,26 +21265,26 @@
       <c r="M69" s="39"/>
     </row>
     <row r="70" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A70" s="82"/>
-      <c r="B70" s="83" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="76" t="s">
         <v>550</v>
       </c>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="77" t="s">
         <v>672</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="E70" s="85" t="s">
+      <c r="E70" s="78" t="s">
         <v>673</v>
       </c>
-      <c r="F70" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G70" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H70" s="72">
+      <c r="F70" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H70" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21295,28 +21295,28 @@
       <c r="M70" s="39"/>
     </row>
     <row r="71" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A71" s="73">
+      <c r="A71" s="66">
         <v>18</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="68" t="s">
         <v>674</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="67" t="s">
         <v>551</v>
       </c>
-      <c r="E71" s="77" t="s">
+      <c r="E71" s="70" t="s">
         <v>675</v>
       </c>
-      <c r="F71" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G71" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H71" s="72">
+      <c r="F71" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H71" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21327,22 +21327,22 @@
       <c r="M71" s="39"/>
     </row>
     <row r="72" spans="1:13" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="78"/>
-      <c r="B72" s="79" t="s">
+      <c r="A72" s="71"/>
+      <c r="B72" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="79" t="s">
+      <c r="C72" s="73"/>
+      <c r="D72" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="E72" s="81" t="s">
+      <c r="E72" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="F72" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72">
+      <c r="F72" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G72" s="64"/>
+      <c r="H72" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21353,24 +21353,24 @@
       <c r="M72" s="39"/>
     </row>
     <row r="73" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A73" s="78"/>
-      <c r="B73" s="79" t="s">
+      <c r="A73" s="71"/>
+      <c r="B73" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="79" t="s">
+      <c r="C73" s="73"/>
+      <c r="D73" s="72" t="s">
         <v>588</v>
       </c>
-      <c r="E73" s="81" t="s">
+      <c r="E73" s="74" t="s">
         <v>679</v>
       </c>
-      <c r="F73" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G73" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H73" s="72">
+      <c r="F73" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G73" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H73" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21381,26 +21381,26 @@
       <c r="M73" s="39"/>
     </row>
     <row r="74" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83" t="s">
+      <c r="A74" s="75"/>
+      <c r="B74" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="77" t="s">
         <v>680</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E74" s="85" t="s">
+      <c r="E74" s="78" t="s">
         <v>681</v>
       </c>
-      <c r="F74" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G74" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H74" s="72">
+      <c r="F74" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G74" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H74" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21411,26 +21411,26 @@
       <c r="M74" s="39"/>
     </row>
     <row r="75" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A75" s="73">
+      <c r="A75" s="66">
         <v>19</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76" t="s">
+      <c r="C75" s="68"/>
+      <c r="D75" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E75" s="77" t="s">
+      <c r="E75" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="F75" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G75" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H75" s="72">
+      <c r="F75" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H75" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21441,24 +21441,24 @@
       <c r="M75" s="39"/>
     </row>
     <row r="76" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
-      <c r="B76" s="79" t="s">
+      <c r="A76" s="71"/>
+      <c r="B76" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="79" t="s">
+      <c r="C76" s="73"/>
+      <c r="D76" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E76" s="81" t="s">
+      <c r="E76" s="74" t="s">
         <v>683</v>
       </c>
-      <c r="F76" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G76" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H76" s="72">
+      <c r="F76" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G76" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H76" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21469,24 +21469,24 @@
       <c r="M76" s="39"/>
     </row>
     <row r="77" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A77" s="78"/>
-      <c r="B77" s="79" t="s">
+      <c r="A77" s="71"/>
+      <c r="B77" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="79" t="s">
+      <c r="C77" s="73"/>
+      <c r="D77" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E77" s="81" t="s">
+      <c r="E77" s="74" t="s">
         <v>684</v>
       </c>
-      <c r="F77" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G77" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H77" s="72">
+      <c r="F77" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G77" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H77" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21497,24 +21497,24 @@
       <c r="M77" s="39"/>
     </row>
     <row r="78" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A78" s="78"/>
-      <c r="B78" s="79" t="s">
+      <c r="A78" s="71"/>
+      <c r="B78" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="73" t="s">
         <v>685</v>
       </c>
-      <c r="D78" s="79" t="s">
+      <c r="D78" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="E78" s="81"/>
-      <c r="F78" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G78" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H78" s="72">
+      <c r="E78" s="74"/>
+      <c r="F78" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G78" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H78" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21525,24 +21525,24 @@
       <c r="M78" s="39"/>
     </row>
     <row r="79" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A79" s="82"/>
-      <c r="B79" s="83" t="s">
+      <c r="A79" s="75"/>
+      <c r="B79" s="76" t="s">
         <v>686</v>
       </c>
-      <c r="C79" s="84" t="s">
+      <c r="C79" s="77" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="83" t="s">
+      <c r="D79" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G79" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H79" s="72">
+      <c r="E79" s="78"/>
+      <c r="F79" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G79" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H79" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21553,28 +21553,28 @@
       <c r="M79" s="39"/>
     </row>
     <row r="80" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A80" s="73">
+      <c r="A80" s="66">
         <v>20</v>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="67" t="s">
         <v>542</v>
       </c>
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="68" t="s">
         <v>688</v>
       </c>
-      <c r="D80" s="74" t="s">
+      <c r="D80" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E80" s="77" t="s">
+      <c r="E80" s="70" t="s">
         <v>689</v>
       </c>
-      <c r="F80" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G80" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H80" s="72">
+      <c r="F80" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H80" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21585,24 +21585,24 @@
       <c r="M80" s="39"/>
     </row>
     <row r="81" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
-      <c r="B81" s="79" t="s">
+      <c r="A81" s="71"/>
+      <c r="B81" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="79" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="72" t="s">
         <v>588</v>
       </c>
-      <c r="E81" s="81" t="s">
+      <c r="E81" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="F81" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G81" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H81" s="72">
+      <c r="F81" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G81" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H81" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21613,26 +21613,26 @@
       <c r="M81" s="39"/>
     </row>
     <row r="82" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A82" s="78"/>
-      <c r="B82" s="79" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="73" t="s">
         <v>691</v>
       </c>
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E82" s="81" t="s">
+      <c r="E82" s="74" t="s">
         <v>692</v>
       </c>
-      <c r="F82" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G82" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H82" s="72">
+      <c r="F82" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G82" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H82" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21643,24 +21643,24 @@
       <c r="M82" s="39"/>
     </row>
     <row r="83" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A83" s="78"/>
-      <c r="B83" s="79" t="s">
+      <c r="A83" s="71"/>
+      <c r="B83" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="79" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E83" s="81" t="s">
+      <c r="E83" s="74" t="s">
         <v>693</v>
       </c>
-      <c r="F83" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G83" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H83" s="72">
+      <c r="F83" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G83" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H83" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21671,26 +21671,26 @@
       <c r="M83" s="39"/>
     </row>
     <row r="84" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
-      <c r="B84" s="79" t="s">
+      <c r="A84" s="71"/>
+      <c r="B84" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="D84" s="79" t="s">
+      <c r="D84" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E84" s="81" t="s">
+      <c r="E84" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="F84" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G84" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H84" s="72">
+      <c r="F84" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G84" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H84" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21701,26 +21701,26 @@
       <c r="M84" s="39"/>
     </row>
     <row r="85" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
-      <c r="B85" s="79" t="s">
+      <c r="A85" s="71"/>
+      <c r="B85" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="D85" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E85" s="81" t="s">
+      <c r="E85" s="74" t="s">
         <v>697</v>
       </c>
-      <c r="F85" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G85" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H85" s="72">
+      <c r="F85" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H85" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21731,24 +21731,24 @@
       <c r="M85" s="39"/>
     </row>
     <row r="86" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A86" s="78"/>
-      <c r="B86" s="86" t="s">
+      <c r="A86" s="71"/>
+      <c r="B86" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C86" s="80"/>
-      <c r="D86" s="79" t="s">
+      <c r="C86" s="73"/>
+      <c r="D86" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="74" t="s">
         <v>698</v>
       </c>
-      <c r="F86" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G86" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H86" s="72">
+      <c r="F86" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H86" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21759,22 +21759,22 @@
       <c r="M86" s="39"/>
     </row>
     <row r="87" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A87" s="82"/>
-      <c r="B87" s="92" t="s">
+      <c r="A87" s="75"/>
+      <c r="B87" s="85" t="s">
         <v>699</v>
       </c>
-      <c r="C87" s="93"/>
-      <c r="D87" s="92" t="s">
+      <c r="C87" s="86"/>
+      <c r="D87" s="85" t="s">
         <v>700</v>
       </c>
-      <c r="E87" s="94" t="s">
+      <c r="E87" s="87" t="s">
         <v>701</v>
       </c>
-      <c r="F87" s="95"/>
-      <c r="G87" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H87" s="72">
+      <c r="F87" s="88"/>
+      <c r="G87" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H87" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21785,26 +21785,26 @@
       <c r="M87" s="39"/>
     </row>
     <row r="88" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A88" s="73">
+      <c r="A88" s="66">
         <v>21</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="69" t="s">
         <v>592</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74" t="s">
+      <c r="C88" s="67"/>
+      <c r="D88" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="E88" s="77" t="s">
+      <c r="E88" s="70" t="s">
         <v>702</v>
       </c>
-      <c r="F88" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G88" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H88" s="72">
+      <c r="F88" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G88" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H88" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21815,24 +21815,24 @@
       <c r="M88" s="39"/>
     </row>
     <row r="89" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
-      <c r="B89" s="79" t="s">
+      <c r="A89" s="71"/>
+      <c r="B89" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79" t="s">
+      <c r="C89" s="72"/>
+      <c r="D89" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="E89" s="81" t="s">
+      <c r="E89" s="74" t="s">
         <v>703</v>
       </c>
-      <c r="F89" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G89" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H89" s="72">
+      <c r="F89" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G89" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H89" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21843,24 +21843,24 @@
       <c r="M89" s="39"/>
     </row>
     <row r="90" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A90" s="82"/>
-      <c r="B90" s="83" t="s">
+      <c r="A90" s="75"/>
+      <c r="B90" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C90" s="84"/>
-      <c r="D90" s="83" t="s">
+      <c r="C90" s="77"/>
+      <c r="D90" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="E90" s="85" t="s">
+      <c r="E90" s="78" t="s">
         <v>704</v>
       </c>
-      <c r="F90" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G90" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H90" s="72">
+      <c r="F90" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G90" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H90" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21871,26 +21871,26 @@
       <c r="M90" s="39"/>
     </row>
     <row r="91" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A91" s="73">
+      <c r="A91" s="66">
         <v>22</v>
       </c>
-      <c r="B91" s="74" t="s">
+      <c r="B91" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74" t="s">
+      <c r="C91" s="67"/>
+      <c r="D91" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E91" s="77" t="s">
+      <c r="E91" s="70" t="s">
         <v>705</v>
       </c>
-      <c r="F91" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G91" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H91" s="72">
+      <c r="F91" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G91" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H91" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21901,24 +21901,24 @@
       <c r="M91" s="39"/>
     </row>
     <row r="92" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A92" s="82"/>
-      <c r="B92" s="83" t="s">
+      <c r="A92" s="75"/>
+      <c r="B92" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83" t="s">
+      <c r="C92" s="76"/>
+      <c r="D92" s="76" t="s">
         <v>569</v>
       </c>
-      <c r="E92" s="85" t="s">
+      <c r="E92" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="F92" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G92" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H92" s="72">
+      <c r="F92" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G92" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H92" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21929,26 +21929,26 @@
       <c r="M92" s="39"/>
     </row>
     <row r="93" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A93" s="73">
+      <c r="A93" s="66">
         <v>23</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B93" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="C93" s="97"/>
-      <c r="D93" s="96" t="s">
+      <c r="C93" s="90"/>
+      <c r="D93" s="89" t="s">
         <v>524</v>
       </c>
-      <c r="E93" s="77" t="s">
+      <c r="E93" s="70" t="s">
         <v>707</v>
       </c>
-      <c r="F93" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G93" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H93" s="72">
+      <c r="F93" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G93" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H93" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21959,26 +21959,26 @@
       <c r="M93" s="39"/>
     </row>
     <row r="94" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A94" s="78"/>
-      <c r="B94" s="98" t="s">
+      <c r="A94" s="71"/>
+      <c r="B94" s="91" t="s">
         <v>542</v>
       </c>
-      <c r="C94" s="99" t="s">
+      <c r="C94" s="92" t="s">
         <v>708</v>
       </c>
-      <c r="D94" s="98" t="s">
+      <c r="D94" s="91" t="s">
         <v>543</v>
       </c>
-      <c r="E94" s="81" t="s">
+      <c r="E94" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="F94" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G94" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H94" s="72">
+      <c r="F94" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G94" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H94" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -21989,24 +21989,24 @@
       <c r="M94" s="39"/>
     </row>
     <row r="95" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A95" s="78"/>
-      <c r="B95" s="98" t="s">
+      <c r="A95" s="71"/>
+      <c r="B95" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="98" t="s">
+      <c r="C95" s="92"/>
+      <c r="D95" s="91" t="s">
         <v>532</v>
       </c>
-      <c r="E95" s="81" t="s">
+      <c r="E95" s="74" t="s">
         <v>710</v>
       </c>
-      <c r="F95" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G95" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H95" s="72">
+      <c r="F95" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G95" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H95" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22017,24 +22017,24 @@
       <c r="M95" s="39"/>
     </row>
     <row r="96" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A96" s="78"/>
-      <c r="B96" s="98" t="s">
+      <c r="A96" s="71"/>
+      <c r="B96" s="91" t="s">
         <v>586</v>
       </c>
-      <c r="C96" s="100"/>
-      <c r="D96" s="98" t="s">
+      <c r="C96" s="93"/>
+      <c r="D96" s="91" t="s">
         <v>602</v>
       </c>
-      <c r="E96" s="81" t="s">
+      <c r="E96" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="F96" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G96" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H96" s="72">
+      <c r="F96" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G96" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H96" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22045,24 +22045,24 @@
       <c r="M96" s="39"/>
     </row>
     <row r="97" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A97" s="78"/>
-      <c r="B97" s="98" t="s">
+      <c r="A97" s="71"/>
+      <c r="B97" s="91" t="s">
         <v>592</v>
       </c>
-      <c r="C97" s="99"/>
-      <c r="D97" s="98" t="s">
+      <c r="C97" s="92"/>
+      <c r="D97" s="91" t="s">
         <v>594</v>
       </c>
-      <c r="E97" s="81" t="s">
+      <c r="E97" s="74" t="s">
         <v>712</v>
       </c>
-      <c r="F97" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G97" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H97" s="72">
+      <c r="F97" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H97" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22073,26 +22073,26 @@
       <c r="M97" s="39"/>
     </row>
     <row r="98" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A98" s="82"/>
-      <c r="B98" s="101" t="s">
+      <c r="A98" s="75"/>
+      <c r="B98" s="94" t="s">
         <v>567</v>
       </c>
-      <c r="C98" s="102" t="s">
+      <c r="C98" s="95" t="s">
         <v>713</v>
       </c>
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="94" t="s">
         <v>569</v>
       </c>
-      <c r="E98" s="85" t="s">
+      <c r="E98" s="78" t="s">
         <v>714</v>
       </c>
-      <c r="F98" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G98" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H98" s="72">
+      <c r="F98" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G98" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H98" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22103,26 +22103,26 @@
       <c r="M98" s="39"/>
     </row>
     <row r="99" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A99" s="73">
+      <c r="A99" s="66">
         <v>24</v>
       </c>
-      <c r="B99" s="74" t="s">
+      <c r="B99" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74" t="s">
+      <c r="C99" s="67"/>
+      <c r="D99" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E99" s="77" t="s">
+      <c r="E99" s="70" t="s">
         <v>715</v>
       </c>
-      <c r="F99" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G99" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H99" s="72">
+      <c r="F99" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G99" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H99" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22133,24 +22133,24 @@
       <c r="M99" s="39"/>
     </row>
     <row r="100" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A100" s="78"/>
-      <c r="B100" s="79" t="s">
+      <c r="A100" s="71"/>
+      <c r="B100" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C100" s="79"/>
-      <c r="D100" s="79" t="s">
+      <c r="C100" s="72"/>
+      <c r="D100" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E100" s="81" t="s">
+      <c r="E100" s="74" t="s">
         <v>716</v>
       </c>
-      <c r="F100" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G100" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H100" s="72">
+      <c r="F100" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G100" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H100" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22161,24 +22161,24 @@
       <c r="M100" s="39"/>
     </row>
     <row r="101" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A101" s="78"/>
-      <c r="B101" s="79" t="s">
+      <c r="A101" s="71"/>
+      <c r="B101" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79" t="s">
+      <c r="C101" s="72"/>
+      <c r="D101" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E101" s="81" t="s">
+      <c r="E101" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="F101" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G101" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H101" s="72">
+      <c r="F101" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G101" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H101" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22188,25 +22188,25 @@
       <c r="L101" s="39"/>
       <c r="M101" s="39"/>
     </row>
-    <row r="102" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A102" s="78"/>
-      <c r="B102" s="86" t="s">
+    <row r="102" spans="1:13" ht="117" x14ac:dyDescent="0.2">
+      <c r="A102" s="71"/>
+      <c r="B102" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79" t="s">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E102" s="81" t="s">
+      <c r="E102" s="74" t="s">
         <v>718</v>
       </c>
-      <c r="F102" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G102" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H102" s="72">
+      <c r="F102" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G102" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H102" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22217,24 +22217,24 @@
       <c r="M102" s="39"/>
     </row>
     <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A103" s="78"/>
-      <c r="B103" s="79" t="s">
+      <c r="A103" s="71"/>
+      <c r="B103" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79" t="s">
+      <c r="C103" s="72"/>
+      <c r="D103" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E103" s="81" t="s">
+      <c r="E103" s="74" t="s">
         <v>719</v>
       </c>
-      <c r="F103" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G103" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H103" s="72">
+      <c r="F103" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G103" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H103" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22245,24 +22245,24 @@
       <c r="M103" s="39"/>
     </row>
     <row r="104" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A104" s="82"/>
-      <c r="B104" s="83" t="s">
+      <c r="A104" s="75"/>
+      <c r="B104" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="C104" s="84"/>
-      <c r="D104" s="89" t="s">
+      <c r="C104" s="77"/>
+      <c r="D104" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="E104" s="85" t="s">
+      <c r="E104" s="78" t="s">
         <v>720</v>
       </c>
-      <c r="F104" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G104" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H104" s="72">
+      <c r="F104" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H104" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22273,28 +22273,28 @@
       <c r="M104" s="39"/>
     </row>
     <row r="105" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A105" s="73">
+      <c r="A105" s="66">
         <v>25</v>
       </c>
-      <c r="B105" s="74" t="s">
+      <c r="B105" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="68" t="s">
         <v>721</v>
       </c>
-      <c r="D105" s="74" t="s">
+      <c r="D105" s="67" t="s">
         <v>642</v>
       </c>
-      <c r="E105" s="77" t="s">
+      <c r="E105" s="70" t="s">
         <v>722</v>
       </c>
-      <c r="F105" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G105" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H105" s="72">
+      <c r="F105" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G105" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H105" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22305,26 +22305,26 @@
       <c r="M105" s="39"/>
     </row>
     <row r="106" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
-      <c r="B106" s="79" t="s">
+      <c r="A106" s="71"/>
+      <c r="B106" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="C106" s="80" t="s">
+      <c r="C106" s="73" t="s">
         <v>723</v>
       </c>
-      <c r="D106" s="79" t="s">
+      <c r="D106" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E106" s="81" t="s">
+      <c r="E106" s="74" t="s">
         <v>724</v>
       </c>
-      <c r="F106" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G106" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H106" s="72">
+      <c r="F106" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G106" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H106" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22334,25 +22334,25 @@
       <c r="L106" s="39"/>
       <c r="M106" s="39"/>
     </row>
-    <row r="107" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A107" s="78"/>
-      <c r="B107" s="79" t="s">
+    <row r="107" spans="1:13" ht="182" x14ac:dyDescent="0.2">
+      <c r="A107" s="71"/>
+      <c r="B107" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C107" s="80"/>
-      <c r="D107" s="86" t="s">
+      <c r="C107" s="73"/>
+      <c r="D107" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E107" s="81" t="s">
+      <c r="E107" s="74" t="s">
         <v>725</v>
       </c>
-      <c r="F107" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G107" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H107" s="72">
+      <c r="F107" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G107" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H107" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22363,26 +22363,26 @@
       <c r="M107" s="39"/>
     </row>
     <row r="108" spans="1:13" ht="332" x14ac:dyDescent="0.2">
-      <c r="A108" s="78"/>
-      <c r="B108" s="79" t="s">
+      <c r="A108" s="71"/>
+      <c r="B108" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C108" s="80" t="s">
+      <c r="C108" s="73" t="s">
         <v>726</v>
       </c>
-      <c r="D108" s="79" t="s">
+      <c r="D108" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E108" s="81" t="s">
+      <c r="E108" s="74" t="s">
         <v>727</v>
       </c>
-      <c r="F108" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G108" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H108" s="72">
+      <c r="F108" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G108" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H108" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22392,27 +22392,27 @@
       <c r="L108" s="39"/>
       <c r="M108" s="39"/>
     </row>
-    <row r="109" spans="1:13" ht="332" x14ac:dyDescent="0.2">
-      <c r="A109" s="78"/>
-      <c r="B109" s="79" t="s">
+    <row r="109" spans="1:13" ht="344" x14ac:dyDescent="0.2">
+      <c r="A109" s="71"/>
+      <c r="B109" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="73" t="s">
         <v>728</v>
       </c>
-      <c r="D109" s="79" t="s">
+      <c r="D109" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E109" s="81" t="s">
+      <c r="E109" s="74" t="s">
         <v>729</v>
       </c>
-      <c r="F109" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G109" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H109" s="72">
+      <c r="F109" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H109" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22423,24 +22423,24 @@
       <c r="M109" s="39"/>
     </row>
     <row r="110" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A110" s="78"/>
-      <c r="B110" s="79" t="s">
+      <c r="A110" s="71"/>
+      <c r="B110" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C110" s="80"/>
-      <c r="D110" s="79" t="s">
+      <c r="C110" s="73"/>
+      <c r="D110" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E110" s="81" t="s">
+      <c r="E110" s="74" t="s">
         <v>730</v>
       </c>
-      <c r="F110" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G110" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H110" s="72">
+      <c r="F110" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G110" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H110" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22451,24 +22451,24 @@
       <c r="M110" s="39"/>
     </row>
     <row r="111" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A111" s="78"/>
-      <c r="B111" s="79" t="s">
+      <c r="A111" s="71"/>
+      <c r="B111" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="C111" s="80"/>
-      <c r="D111" s="79" t="s">
+      <c r="C111" s="73"/>
+      <c r="D111" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E111" s="81" t="s">
+      <c r="E111" s="74" t="s">
         <v>731</v>
       </c>
-      <c r="F111" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G111" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H111" s="72">
+      <c r="F111" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G111" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H111" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22479,24 +22479,24 @@
       <c r="M111" s="39"/>
     </row>
     <row r="112" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A112" s="78"/>
-      <c r="B112" s="79" t="s">
+      <c r="A112" s="71"/>
+      <c r="B112" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C112" s="80"/>
-      <c r="D112" s="79" t="s">
+      <c r="C112" s="73"/>
+      <c r="D112" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E112" s="81" t="s">
+      <c r="E112" s="74" t="s">
         <v>732</v>
       </c>
-      <c r="F112" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G112" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H112" s="72">
+      <c r="F112" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H112" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22507,26 +22507,26 @@
       <c r="M112" s="39"/>
     </row>
     <row r="113" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A113" s="82"/>
-      <c r="B113" s="83" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C113" s="84" t="s">
+      <c r="C113" s="77" t="s">
         <v>733</v>
       </c>
-      <c r="D113" s="83" t="s">
+      <c r="D113" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E113" s="85" t="s">
+      <c r="E113" s="78" t="s">
         <v>734</v>
       </c>
-      <c r="F113" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G113" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H113" s="72">
+      <c r="F113" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G113" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H113" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22537,26 +22537,26 @@
       <c r="M113" s="39"/>
     </row>
     <row r="114" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A114" s="73">
+      <c r="A114" s="66">
         <v>26</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C114" s="103"/>
-      <c r="D114" s="74" t="s">
+      <c r="C114" s="96"/>
+      <c r="D114" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E114" s="77" t="s">
+      <c r="E114" s="70" t="s">
         <v>735</v>
       </c>
-      <c r="F114" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G114" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H114" s="72">
+      <c r="F114" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G114" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H114" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22567,24 +22567,24 @@
       <c r="M114" s="39"/>
     </row>
     <row r="115" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A115" s="78"/>
-      <c r="B115" s="79" t="s">
+      <c r="A115" s="71"/>
+      <c r="B115" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C115" s="104"/>
-      <c r="D115" s="79" t="s">
+      <c r="C115" s="97"/>
+      <c r="D115" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E115" s="81" t="s">
+      <c r="E115" s="74" t="s">
         <v>736</v>
       </c>
-      <c r="F115" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G115" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H115" s="72">
+      <c r="F115" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G115" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H115" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22595,24 +22595,24 @@
       <c r="M115" s="39"/>
     </row>
     <row r="116" spans="1:13" ht="260" x14ac:dyDescent="0.2">
-      <c r="A116" s="78"/>
-      <c r="B116" s="79" t="s">
+      <c r="A116" s="71"/>
+      <c r="B116" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C116" s="104"/>
-      <c r="D116" s="86" t="s">
+      <c r="C116" s="97"/>
+      <c r="D116" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E116" s="81" t="s">
+      <c r="E116" s="74" t="s">
         <v>737</v>
       </c>
-      <c r="F116" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G116" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H116" s="72">
+      <c r="F116" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G116" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H116" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22623,24 +22623,24 @@
       <c r="M116" s="39"/>
     </row>
     <row r="117" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A117" s="78"/>
-      <c r="B117" s="79" t="s">
+      <c r="A117" s="71"/>
+      <c r="B117" s="72" t="s">
         <v>582</v>
       </c>
-      <c r="C117" s="104"/>
-      <c r="D117" s="79" t="s">
+      <c r="C117" s="97"/>
+      <c r="D117" s="72" t="s">
         <v>583</v>
       </c>
-      <c r="E117" s="81" t="s">
+      <c r="E117" s="74" t="s">
         <v>738</v>
       </c>
-      <c r="F117" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G117" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H117" s="72">
+      <c r="F117" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G117" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H117" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22651,24 +22651,24 @@
       <c r="M117" s="39"/>
     </row>
     <row r="118" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A118" s="78"/>
-      <c r="B118" s="79" t="s">
+      <c r="A118" s="71"/>
+      <c r="B118" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C118" s="100"/>
-      <c r="D118" s="79" t="s">
+      <c r="C118" s="93"/>
+      <c r="D118" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E118" s="81" t="s">
+      <c r="E118" s="74" t="s">
         <v>739</v>
       </c>
-      <c r="F118" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G118" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H118" s="72">
+      <c r="F118" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G118" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H118" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22679,22 +22679,22 @@
       <c r="M118" s="39"/>
     </row>
     <row r="119" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A119" s="78"/>
-      <c r="B119" s="79" t="s">
+      <c r="A119" s="71"/>
+      <c r="B119" s="72" t="s">
         <v>740</v>
       </c>
-      <c r="C119" s="100"/>
-      <c r="D119" s="79" t="s">
+      <c r="C119" s="93"/>
+      <c r="D119" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E119" s="81" t="s">
+      <c r="E119" s="74" t="s">
         <v>741</v>
       </c>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H119" s="72">
+      <c r="F119" s="64"/>
+      <c r="G119" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H119" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22705,24 +22705,24 @@
       <c r="M119" s="39"/>
     </row>
     <row r="120" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A120" s="82"/>
-      <c r="B120" s="83" t="s">
+      <c r="A120" s="75"/>
+      <c r="B120" s="76" t="s">
         <v>604</v>
       </c>
-      <c r="C120" s="105"/>
-      <c r="D120" s="83" t="s">
+      <c r="C120" s="98"/>
+      <c r="D120" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E120" s="85" t="s">
+      <c r="E120" s="78" t="s">
         <v>742</v>
       </c>
-      <c r="F120" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G120" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H120" s="72">
+      <c r="F120" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G120" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H120" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22733,28 +22733,28 @@
       <c r="M120" s="39"/>
     </row>
     <row r="121" spans="1:13" ht="284" x14ac:dyDescent="0.2">
-      <c r="A121" s="73">
+      <c r="A121" s="66">
         <v>27</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="C121" s="75" t="s">
+      <c r="C121" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="D121" s="74" t="s">
+      <c r="D121" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E121" s="77" t="s">
+      <c r="E121" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="F121" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G121" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H121" s="72">
+      <c r="F121" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G121" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H121" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22765,24 +22765,24 @@
       <c r="M121" s="39"/>
     </row>
     <row r="122" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A122" s="78"/>
-      <c r="B122" s="86" t="s">
+      <c r="A122" s="71"/>
+      <c r="B122" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="73" t="s">
         <v>745</v>
       </c>
-      <c r="D122" s="79" t="s">
+      <c r="D122" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E122" s="81" t="s">
+      <c r="E122" s="74" t="s">
         <v>746</v>
       </c>
-      <c r="F122" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G122" s="71"/>
-      <c r="H122" s="72">
+      <c r="F122" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G122" s="64"/>
+      <c r="H122" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22793,24 +22793,24 @@
       <c r="M122" s="39"/>
     </row>
     <row r="123" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A123" s="78"/>
-      <c r="B123" s="79" t="s">
+      <c r="A123" s="71"/>
+      <c r="B123" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C123" s="80"/>
-      <c r="D123" s="79" t="s">
+      <c r="C123" s="73"/>
+      <c r="D123" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E123" s="81" t="s">
+      <c r="E123" s="74" t="s">
         <v>747</v>
       </c>
-      <c r="F123" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G123" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H123" s="72">
+      <c r="F123" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G123" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H123" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22821,26 +22821,26 @@
       <c r="M123" s="39"/>
     </row>
     <row r="124" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A124" s="78"/>
-      <c r="B124" s="79" t="s">
+      <c r="A124" s="71"/>
+      <c r="B124" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C124" s="80" t="s">
+      <c r="C124" s="73" t="s">
         <v>748</v>
       </c>
-      <c r="D124" s="86" t="s">
+      <c r="D124" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E124" s="81" t="s">
+      <c r="E124" s="74" t="s">
         <v>749</v>
       </c>
-      <c r="F124" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G124" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H124" s="72">
+      <c r="F124" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G124" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H124" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22851,26 +22851,26 @@
       <c r="M124" s="39"/>
     </row>
     <row r="125" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A125" s="82"/>
-      <c r="B125" s="83" t="s">
+      <c r="A125" s="75"/>
+      <c r="B125" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="C125" s="84" t="s">
+      <c r="C125" s="77" t="s">
         <v>748</v>
       </c>
-      <c r="D125" s="83" t="s">
+      <c r="D125" s="76" t="s">
         <v>583</v>
       </c>
-      <c r="E125" s="85" t="s">
+      <c r="E125" s="78" t="s">
         <v>749</v>
       </c>
-      <c r="F125" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G125" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H125" s="72">
+      <c r="F125" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G125" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H125" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22881,28 +22881,28 @@
       <c r="M125" s="39"/>
     </row>
     <row r="126" spans="1:13" ht="234" x14ac:dyDescent="0.2">
-      <c r="A126" s="73">
+      <c r="A126" s="66">
         <v>28</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="67" t="s">
         <v>582</v>
       </c>
-      <c r="C126" s="75" t="s">
+      <c r="C126" s="68" t="s">
         <v>750</v>
       </c>
-      <c r="D126" s="74" t="s">
+      <c r="D126" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="E126" s="77" t="s">
+      <c r="E126" s="70" t="s">
         <v>751</v>
       </c>
-      <c r="F126" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G126" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H126" s="72">
+      <c r="F126" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G126" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H126" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22913,26 +22913,26 @@
       <c r="M126" s="39"/>
     </row>
     <row r="127" spans="1:13" ht="234" x14ac:dyDescent="0.2">
-      <c r="A127" s="82"/>
-      <c r="B127" s="83" t="s">
+      <c r="A127" s="75"/>
+      <c r="B127" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="C127" s="84" t="s">
+      <c r="C127" s="77" t="s">
         <v>750</v>
       </c>
-      <c r="D127" s="89" t="s">
+      <c r="D127" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="E127" s="85" t="s">
+      <c r="E127" s="78" t="s">
         <v>751</v>
       </c>
-      <c r="F127" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G127" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H127" s="72">
+      <c r="F127" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G127" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H127" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22943,26 +22943,26 @@
       <c r="M127" s="39"/>
     </row>
     <row r="128" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A128" s="73">
+      <c r="A128" s="66">
         <v>29</v>
       </c>
-      <c r="B128" s="74" t="s">
+      <c r="B128" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C128" s="74"/>
-      <c r="D128" s="74" t="s">
+      <c r="C128" s="67"/>
+      <c r="D128" s="67" t="s">
         <v>598</v>
       </c>
-      <c r="E128" s="77" t="s">
+      <c r="E128" s="70" t="s">
         <v>752</v>
       </c>
-      <c r="F128" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G128" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H128" s="72">
+      <c r="F128" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G128" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H128" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -22973,24 +22973,24 @@
       <c r="M128" s="39"/>
     </row>
     <row r="129" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A129" s="78"/>
-      <c r="B129" s="79" t="s">
+      <c r="A129" s="71"/>
+      <c r="B129" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C129" s="79"/>
-      <c r="D129" s="79" t="s">
+      <c r="C129" s="72"/>
+      <c r="D129" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="E129" s="74" t="s">
         <v>753</v>
       </c>
-      <c r="F129" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G129" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H129" s="72">
+      <c r="F129" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G129" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H129" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -23001,24 +23001,24 @@
       <c r="M129" s="39"/>
     </row>
     <row r="130" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A130" s="78"/>
-      <c r="B130" s="79" t="s">
+      <c r="A130" s="71"/>
+      <c r="B130" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C130" s="79"/>
-      <c r="D130" s="79" t="s">
+      <c r="C130" s="72"/>
+      <c r="D130" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E130" s="81" t="s">
+      <c r="E130" s="74" t="s">
         <v>754</v>
       </c>
-      <c r="F130" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G130" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H130" s="72">
+      <c r="F130" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G130" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H130" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -23029,26 +23029,26 @@
       <c r="M130" s="39"/>
     </row>
     <row r="131" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A131" s="82"/>
-      <c r="B131" s="83" t="s">
+      <c r="A131" s="75"/>
+      <c r="B131" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="C131" s="84" t="s">
+      <c r="C131" s="77" t="s">
         <v>755</v>
       </c>
-      <c r="D131" s="83" t="s">
+      <c r="D131" s="76" t="s">
         <v>756</v>
       </c>
-      <c r="E131" s="85" t="s">
+      <c r="E131" s="78" t="s">
         <v>757</v>
       </c>
-      <c r="F131" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G131" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H131" s="72">
+      <c r="F131" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G131" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H131" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -23059,28 +23059,28 @@
       <c r="M131" s="39"/>
     </row>
     <row r="132" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A132" s="73">
+      <c r="A132" s="66">
         <v>30</v>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="C132" s="75" t="s">
+      <c r="C132" s="68" t="s">
         <v>758</v>
       </c>
-      <c r="D132" s="74" t="s">
+      <c r="D132" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="E132" s="77" t="s">
+      <c r="E132" s="70" t="s">
         <v>759</v>
       </c>
-      <c r="F132" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G132" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H132" s="72">
+      <c r="F132" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G132" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H132" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -23091,22 +23091,22 @@
       <c r="M132" s="39"/>
     </row>
     <row r="133" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A133" s="82"/>
-      <c r="B133" s="83" t="s">
+      <c r="A133" s="75"/>
+      <c r="B133" s="76" t="s">
         <v>580</v>
       </c>
-      <c r="C133" s="84"/>
-      <c r="D133" s="83" t="s">
+      <c r="C133" s="77"/>
+      <c r="D133" s="76" t="s">
         <v>581</v>
       </c>
-      <c r="E133" s="85" t="s">
+      <c r="E133" s="78" t="s">
         <v>760</v>
       </c>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H133" s="72">
+      <c r="F133" s="64"/>
+      <c r="G133" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H133" s="65">
         <f t="shared" ref="H133:H196" si="2">IF(F133=G133,1,0)</f>
         <v>0</v>
       </c>
@@ -23117,26 +23117,26 @@
       <c r="M133" s="39"/>
     </row>
     <row r="134" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A134" s="73">
+      <c r="A134" s="66">
         <v>31</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74" t="s">
+      <c r="C134" s="67"/>
+      <c r="D134" s="67" t="s">
         <v>571</v>
       </c>
-      <c r="E134" s="77" t="s">
+      <c r="E134" s="70" t="s">
         <v>761</v>
       </c>
-      <c r="F134" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G134" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H134" s="72">
+      <c r="F134" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G134" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H134" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23147,24 +23147,24 @@
       <c r="M134" s="39"/>
     </row>
     <row r="135" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A135" s="78"/>
-      <c r="B135" s="79" t="s">
+      <c r="A135" s="71"/>
+      <c r="B135" s="72" t="s">
         <v>580</v>
       </c>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79" t="s">
+      <c r="C135" s="72"/>
+      <c r="D135" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="E135" s="81" t="s">
+      <c r="E135" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="F135" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G135" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H135" s="72">
+      <c r="F135" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G135" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H135" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23175,26 +23175,26 @@
       <c r="M135" s="39"/>
     </row>
     <row r="136" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A136" s="78"/>
-      <c r="B136" s="79" t="s">
+      <c r="A136" s="71"/>
+      <c r="B136" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C136" s="80" t="s">
+      <c r="C136" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="D136" s="79" t="s">
+      <c r="D136" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E136" s="81" t="s">
+      <c r="E136" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="F136" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G136" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H136" s="72">
+      <c r="F136" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H136" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23205,26 +23205,26 @@
       <c r="M136" s="39"/>
     </row>
     <row r="137" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A137" s="82"/>
-      <c r="B137" s="83" t="s">
+      <c r="A137" s="75"/>
+      <c r="B137" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="C137" s="84" t="s">
+      <c r="C137" s="77" t="s">
         <v>765</v>
       </c>
-      <c r="D137" s="83" t="s">
+      <c r="D137" s="76" t="s">
         <v>569</v>
       </c>
-      <c r="E137" s="85" t="s">
+      <c r="E137" s="78" t="s">
         <v>766</v>
       </c>
-      <c r="F137" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G137" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H137" s="72">
+      <c r="F137" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G137" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H137" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23235,26 +23235,26 @@
       <c r="M137" s="39"/>
     </row>
     <row r="138" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A138" s="73">
+      <c r="A138" s="66">
         <v>32</v>
       </c>
-      <c r="B138" s="74" t="s">
+      <c r="B138" s="67" t="s">
         <v>767</v>
       </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74" t="s">
+      <c r="C138" s="67"/>
+      <c r="D138" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E138" s="77" t="s">
+      <c r="E138" s="70" t="s">
         <v>768</v>
       </c>
-      <c r="F138" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G138" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H138" s="72">
+      <c r="F138" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G138" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H138" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23264,25 +23264,25 @@
       <c r="L138" s="39"/>
       <c r="M138" s="39"/>
     </row>
-    <row r="139" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A139" s="78"/>
-      <c r="B139" s="79" t="s">
+    <row r="139" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+      <c r="A139" s="71"/>
+      <c r="B139" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C139" s="80" t="s">
+      <c r="C139" s="73" t="s">
         <v>769</v>
       </c>
-      <c r="D139" s="79" t="s">
+      <c r="D139" s="72" t="s">
         <v>662</v>
       </c>
-      <c r="E139" s="81" t="s">
+      <c r="E139" s="74" t="s">
         <v>770</v>
       </c>
-      <c r="F139" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G139" s="71"/>
-      <c r="H139" s="72">
+      <c r="F139" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G139" s="64"/>
+      <c r="H139" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23293,22 +23293,22 @@
       <c r="M139" s="39"/>
     </row>
     <row r="140" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A140" s="78"/>
-      <c r="B140" s="79" t="s">
+      <c r="A140" s="71"/>
+      <c r="B140" s="72" t="s">
         <v>767</v>
       </c>
-      <c r="C140" s="80" t="s">
+      <c r="C140" s="73" t="s">
         <v>771</v>
       </c>
-      <c r="D140" s="79" t="s">
+      <c r="D140" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E140" s="81"/>
-      <c r="F140" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G140" s="71"/>
-      <c r="H140" s="72">
+      <c r="E140" s="74"/>
+      <c r="F140" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G140" s="64"/>
+      <c r="H140" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23319,26 +23319,26 @@
       <c r="M140" s="39"/>
     </row>
     <row r="141" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A141" s="82"/>
-      <c r="B141" s="83" t="s">
+      <c r="A141" s="75"/>
+      <c r="B141" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C141" s="84" t="s">
+      <c r="C141" s="77" t="s">
         <v>772</v>
       </c>
-      <c r="D141" s="83" t="s">
+      <c r="D141" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="E141" s="85" t="s">
+      <c r="E141" s="78" t="s">
         <v>773</v>
       </c>
-      <c r="F141" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G141" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H141" s="72">
+      <c r="F141" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G141" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H141" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23349,28 +23349,28 @@
       <c r="M141" s="39"/>
     </row>
     <row r="142" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A142" s="73">
+      <c r="A142" s="66">
         <v>33</v>
       </c>
-      <c r="B142" s="74" t="s">
+      <c r="B142" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C142" s="75" t="s">
+      <c r="C142" s="68" t="s">
         <v>774</v>
       </c>
-      <c r="D142" s="74" t="s">
+      <c r="D142" s="67" t="s">
         <v>598</v>
       </c>
-      <c r="E142" s="77" t="s">
+      <c r="E142" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="F142" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G142" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H142" s="72">
+      <c r="F142" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G142" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H142" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23381,24 +23381,24 @@
       <c r="M142" s="39"/>
     </row>
     <row r="143" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A143" s="78"/>
-      <c r="B143" s="79" t="s">
+      <c r="A143" s="71"/>
+      <c r="B143" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C143" s="80"/>
-      <c r="D143" s="79" t="s">
+      <c r="C143" s="73"/>
+      <c r="D143" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E143" s="81" t="s">
+      <c r="E143" s="74" t="s">
         <v>776</v>
       </c>
-      <c r="F143" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G143" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H143" s="72">
+      <c r="F143" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G143" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H143" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23409,26 +23409,26 @@
       <c r="M143" s="39"/>
     </row>
     <row r="144" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A144" s="78"/>
-      <c r="B144" s="79" t="s">
+      <c r="A144" s="71"/>
+      <c r="B144" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="73" t="s">
         <v>777</v>
       </c>
-      <c r="D144" s="79" t="s">
+      <c r="D144" s="72" t="s">
         <v>778</v>
       </c>
-      <c r="E144" s="81" t="s">
+      <c r="E144" s="74" t="s">
         <v>779</v>
       </c>
-      <c r="F144" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G144" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H144" s="72">
+      <c r="F144" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G144" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H144" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23439,26 +23439,26 @@
       <c r="M144" s="39"/>
     </row>
     <row r="145" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A145" s="82"/>
-      <c r="B145" s="83" t="s">
+      <c r="A145" s="75"/>
+      <c r="B145" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="C145" s="84" t="s">
+      <c r="C145" s="77" t="s">
         <v>780</v>
       </c>
-      <c r="D145" s="83" t="s">
+      <c r="D145" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="E145" s="85" t="s">
+      <c r="E145" s="78" t="s">
         <v>781</v>
       </c>
-      <c r="F145" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G145" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H145" s="72">
+      <c r="F145" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G145" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H145" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23469,26 +23469,26 @@
       <c r="M145" s="39"/>
     </row>
     <row r="146" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A146" s="73">
+      <c r="A146" s="66">
         <v>34</v>
       </c>
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74" t="s">
+      <c r="C146" s="67"/>
+      <c r="D146" s="67" t="s">
         <v>598</v>
       </c>
-      <c r="E146" s="77" t="s">
+      <c r="E146" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="F146" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G146" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H146" s="72">
+      <c r="F146" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H146" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23499,24 +23499,24 @@
       <c r="M146" s="39"/>
     </row>
     <row r="147" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A147" s="78"/>
-      <c r="B147" s="79" t="s">
+      <c r="A147" s="71"/>
+      <c r="B147" s="72" t="s">
         <v>767</v>
       </c>
-      <c r="C147" s="79"/>
-      <c r="D147" s="79" t="s">
+      <c r="C147" s="72"/>
+      <c r="D147" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E147" s="81" t="s">
+      <c r="E147" s="74" t="s">
         <v>783</v>
       </c>
-      <c r="F147" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G147" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H147" s="72">
+      <c r="F147" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G147" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H147" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23527,24 +23527,24 @@
       <c r="M147" s="39"/>
     </row>
     <row r="148" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A148" s="78"/>
-      <c r="B148" s="79" t="s">
+      <c r="A148" s="71"/>
+      <c r="B148" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C148" s="79"/>
-      <c r="D148" s="79" t="s">
+      <c r="C148" s="72"/>
+      <c r="D148" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E148" s="81" t="s">
+      <c r="E148" s="74" t="s">
         <v>784</v>
       </c>
-      <c r="F148" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G148" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H148" s="72">
+      <c r="F148" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G148" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H148" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23555,26 +23555,26 @@
       <c r="M148" s="39"/>
     </row>
     <row r="149" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A149" s="82"/>
-      <c r="B149" s="83" t="s">
+      <c r="A149" s="75"/>
+      <c r="B149" s="76" t="s">
         <v>785</v>
       </c>
-      <c r="C149" s="84" t="s">
+      <c r="C149" s="77" t="s">
         <v>786</v>
       </c>
-      <c r="D149" s="83" t="s">
+      <c r="D149" s="76" t="s">
         <v>787</v>
       </c>
-      <c r="E149" s="85" t="s">
+      <c r="E149" s="78" t="s">
         <v>788</v>
       </c>
-      <c r="F149" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G149" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H149" s="72">
+      <c r="F149" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G149" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H149" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23585,28 +23585,28 @@
       <c r="M149" s="39"/>
     </row>
     <row r="150" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A150" s="73">
+      <c r="A150" s="66">
         <v>35</v>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B150" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="C150" s="75" t="s">
+      <c r="C150" s="68" t="s">
         <v>789</v>
       </c>
-      <c r="D150" s="74" t="s">
+      <c r="D150" s="67" t="s">
         <v>642</v>
       </c>
-      <c r="E150" s="77" t="s">
+      <c r="E150" s="70" t="s">
         <v>790</v>
       </c>
-      <c r="F150" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G150" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H150" s="72">
+      <c r="F150" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G150" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H150" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23617,26 +23617,26 @@
       <c r="M150" s="39"/>
     </row>
     <row r="151" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A151" s="78"/>
-      <c r="B151" s="79" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C151" s="80" t="s">
+      <c r="C151" s="73" t="s">
         <v>791</v>
       </c>
-      <c r="D151" s="79" t="s">
+      <c r="D151" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E151" s="81" t="s">
+      <c r="E151" s="74" t="s">
         <v>792</v>
       </c>
-      <c r="F151" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G151" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H151" s="72">
+      <c r="F151" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G151" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H151" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23647,22 +23647,22 @@
       <c r="M151" s="39"/>
     </row>
     <row r="152" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A152" s="82"/>
-      <c r="B152" s="83" t="s">
+      <c r="A152" s="75"/>
+      <c r="B152" s="76" t="s">
         <v>785</v>
       </c>
-      <c r="C152" s="84"/>
-      <c r="D152" s="83" t="s">
+      <c r="C152" s="77"/>
+      <c r="D152" s="76" t="s">
         <v>787</v>
       </c>
-      <c r="E152" s="85" t="s">
+      <c r="E152" s="78" t="s">
         <v>793</v>
       </c>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H152" s="72">
+      <c r="F152" s="64"/>
+      <c r="G152" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H152" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23673,28 +23673,28 @@
       <c r="M152" s="39"/>
     </row>
     <row r="153" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A153" s="73">
+      <c r="A153" s="66">
         <v>36</v>
       </c>
-      <c r="B153" s="74" t="s">
+      <c r="B153" s="67" t="s">
         <v>553</v>
       </c>
-      <c r="C153" s="75" t="s">
+      <c r="C153" s="68" t="s">
         <v>794</v>
       </c>
-      <c r="D153" s="74" t="s">
+      <c r="D153" s="67" t="s">
         <v>555</v>
       </c>
-      <c r="E153" s="77" t="s">
+      <c r="E153" s="70" t="s">
         <v>795</v>
       </c>
-      <c r="F153" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G153" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H153" s="72">
+      <c r="F153" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G153" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H153" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23705,24 +23705,24 @@
       <c r="M153" s="39"/>
     </row>
     <row r="154" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A154" s="78"/>
-      <c r="B154" s="79" t="s">
+      <c r="A154" s="71"/>
+      <c r="B154" s="72" t="s">
         <v>740</v>
       </c>
-      <c r="C154" s="80"/>
-      <c r="D154" s="79" t="s">
+      <c r="C154" s="73"/>
+      <c r="D154" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E154" s="81" t="s">
+      <c r="E154" s="74" t="s">
         <v>796</v>
       </c>
-      <c r="F154" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G154" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H154" s="72">
+      <c r="F154" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G154" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H154" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23733,26 +23733,26 @@
       <c r="M154" s="39"/>
     </row>
     <row r="155" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A155" s="82"/>
-      <c r="B155" s="83" t="s">
+      <c r="A155" s="75"/>
+      <c r="B155" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="C155" s="84" t="s">
+      <c r="C155" s="77" t="s">
         <v>797</v>
       </c>
-      <c r="D155" s="89" t="s">
+      <c r="D155" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="E155" s="85" t="s">
+      <c r="E155" s="78" t="s">
         <v>798</v>
       </c>
-      <c r="F155" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G155" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H155" s="72">
+      <c r="F155" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G155" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H155" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23763,26 +23763,26 @@
       <c r="M155" s="39"/>
     </row>
     <row r="156" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A156" s="73">
+      <c r="A156" s="66">
         <v>37</v>
       </c>
-      <c r="B156" s="74" t="s">
+      <c r="B156" s="67" t="s">
         <v>767</v>
       </c>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74" t="s">
+      <c r="C156" s="67"/>
+      <c r="D156" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E156" s="77" t="s">
+      <c r="E156" s="70" t="s">
         <v>799</v>
       </c>
-      <c r="F156" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G156" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H156" s="72">
+      <c r="F156" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G156" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H156" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23793,24 +23793,24 @@
       <c r="M156" s="39"/>
     </row>
     <row r="157" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A157" s="78"/>
-      <c r="B157" s="79" t="s">
+      <c r="A157" s="71"/>
+      <c r="B157" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C157" s="79"/>
-      <c r="D157" s="86" t="s">
+      <c r="C157" s="72"/>
+      <c r="D157" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E157" s="81" t="s">
+      <c r="E157" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="F157" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G157" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H157" s="72">
+      <c r="F157" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H157" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23821,26 +23821,26 @@
       <c r="M157" s="39"/>
     </row>
     <row r="158" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A158" s="78"/>
-      <c r="B158" s="79" t="s">
+      <c r="A158" s="71"/>
+      <c r="B158" s="72" t="s">
         <v>801</v>
       </c>
-      <c r="C158" s="80" t="s">
+      <c r="C158" s="73" t="s">
         <v>802</v>
       </c>
-      <c r="D158" s="79" t="s">
+      <c r="D158" s="72" t="s">
         <v>803</v>
       </c>
-      <c r="E158" s="81" t="s">
+      <c r="E158" s="74" t="s">
         <v>804</v>
       </c>
-      <c r="F158" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G158" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H158" s="72">
+      <c r="F158" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H158" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23851,24 +23851,24 @@
       <c r="M158" s="39"/>
     </row>
     <row r="159" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A159" s="78"/>
-      <c r="B159" s="79" t="s">
+      <c r="A159" s="71"/>
+      <c r="B159" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C159" s="80"/>
-      <c r="D159" s="79" t="s">
+      <c r="C159" s="73"/>
+      <c r="D159" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E159" s="81" t="s">
+      <c r="E159" s="74" t="s">
         <v>805</v>
       </c>
-      <c r="F159" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G159" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H159" s="72">
+      <c r="F159" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G159" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H159" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23879,24 +23879,24 @@
       <c r="M159" s="39"/>
     </row>
     <row r="160" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A160" s="78"/>
-      <c r="B160" s="79" t="s">
+      <c r="A160" s="71"/>
+      <c r="B160" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C160" s="80"/>
-      <c r="D160" s="79" t="s">
+      <c r="C160" s="73"/>
+      <c r="D160" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E160" s="81" t="s">
+      <c r="E160" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="F160" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G160" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H160" s="72">
+      <c r="F160" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G160" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H160" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23907,22 +23907,22 @@
       <c r="M160" s="39"/>
     </row>
     <row r="161" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A161" s="106"/>
-      <c r="B161" s="107" t="s">
+      <c r="A161" s="99"/>
+      <c r="B161" s="100" t="s">
         <v>699</v>
       </c>
-      <c r="C161" s="108"/>
-      <c r="D161" s="107" t="s">
+      <c r="C161" s="101"/>
+      <c r="D161" s="100" t="s">
         <v>700</v>
       </c>
-      <c r="E161" s="109" t="s">
+      <c r="E161" s="102" t="s">
         <v>807</v>
       </c>
-      <c r="F161" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G161" s="95"/>
-      <c r="H161" s="72">
+      <c r="F161" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G161" s="88"/>
+      <c r="H161" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23933,26 +23933,26 @@
       <c r="M161" s="39"/>
     </row>
     <row r="162" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A162" s="82"/>
-      <c r="B162" s="83" t="s">
+      <c r="A162" s="75"/>
+      <c r="B162" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C162" s="84" t="s">
+      <c r="C162" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="D162" s="83" t="s">
+      <c r="D162" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="E162" s="85" t="s">
+      <c r="E162" s="78" t="s">
         <v>809</v>
       </c>
-      <c r="F162" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G162" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H162" s="72">
+      <c r="F162" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G162" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H162" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23963,26 +23963,26 @@
       <c r="M162" s="39"/>
     </row>
     <row r="163" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A163" s="73">
+      <c r="A163" s="66">
         <v>38</v>
       </c>
-      <c r="B163" s="74" t="s">
+      <c r="B163" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="C163" s="74"/>
-      <c r="D163" s="74" t="s">
+      <c r="C163" s="67"/>
+      <c r="D163" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E163" s="77" t="s">
+      <c r="E163" s="70" t="s">
         <v>810</v>
       </c>
-      <c r="F163" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G163" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H163" s="72">
+      <c r="F163" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G163" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H163" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -23993,26 +23993,26 @@
       <c r="M163" s="39"/>
     </row>
     <row r="164" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A164" s="78"/>
-      <c r="B164" s="79" t="s">
+      <c r="A164" s="71"/>
+      <c r="B164" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C164" s="80" t="s">
+      <c r="C164" s="73" t="s">
         <v>811</v>
       </c>
-      <c r="D164" s="86" t="s">
+      <c r="D164" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E164" s="81" t="s">
+      <c r="E164" s="74" t="s">
         <v>812</v>
       </c>
-      <c r="F164" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G164" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H164" s="72">
+      <c r="F164" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G164" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H164" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24023,24 +24023,24 @@
       <c r="M164" s="39"/>
     </row>
     <row r="165" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A165" s="82"/>
-      <c r="B165" s="83" t="s">
+      <c r="A165" s="75"/>
+      <c r="B165" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="C165" s="83"/>
-      <c r="D165" s="83" t="s">
+      <c r="C165" s="76"/>
+      <c r="D165" s="76" t="s">
         <v>583</v>
       </c>
-      <c r="E165" s="85" t="s">
+      <c r="E165" s="78" t="s">
         <v>813</v>
       </c>
-      <c r="F165" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G165" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H165" s="72">
+      <c r="F165" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G165" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H165" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24051,28 +24051,28 @@
       <c r="M165" s="39"/>
     </row>
     <row r="166" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A166" s="73">
+      <c r="A166" s="66">
         <v>39</v>
       </c>
-      <c r="B166" s="74" t="s">
+      <c r="B166" s="67" t="s">
         <v>545</v>
       </c>
-      <c r="C166" s="75" t="s">
+      <c r="C166" s="68" t="s">
         <v>814</v>
       </c>
-      <c r="D166" s="74" t="s">
+      <c r="D166" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="E166" s="77" t="s">
+      <c r="E166" s="70" t="s">
         <v>815</v>
       </c>
-      <c r="F166" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G166" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H166" s="72">
+      <c r="F166" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G166" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H166" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24083,26 +24083,26 @@
       <c r="M166" s="39"/>
     </row>
     <row r="167" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A167" s="73">
+      <c r="A167" s="66">
         <v>40</v>
       </c>
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74" t="s">
+      <c r="C167" s="67"/>
+      <c r="D167" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E167" s="77" t="s">
+      <c r="E167" s="70" t="s">
         <v>816</v>
       </c>
-      <c r="F167" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G167" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H167" s="72">
+      <c r="F167" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G167" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H167" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24113,26 +24113,26 @@
       <c r="M167" s="39"/>
     </row>
     <row r="168" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A168" s="78"/>
-      <c r="B168" s="79" t="s">
+      <c r="A168" s="71"/>
+      <c r="B168" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C168" s="80" t="s">
+      <c r="C168" s="73" t="s">
         <v>817</v>
       </c>
-      <c r="D168" s="79" t="s">
+      <c r="D168" s="72" t="s">
         <v>625</v>
       </c>
-      <c r="E168" s="81" t="s">
+      <c r="E168" s="74" t="s">
         <v>818</v>
       </c>
-      <c r="F168" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G168" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H168" s="72">
+      <c r="F168" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G168" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H168" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24143,24 +24143,24 @@
       <c r="M168" s="39"/>
     </row>
     <row r="169" spans="1:13" ht="39" x14ac:dyDescent="0.2">
-      <c r="A169" s="78"/>
-      <c r="B169" s="79" t="s">
+      <c r="A169" s="71"/>
+      <c r="B169" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C169" s="80" t="s">
+      <c r="C169" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="D169" s="79" t="s">
+      <c r="D169" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E169" s="81"/>
-      <c r="F169" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G169" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H169" s="72">
+      <c r="E169" s="74"/>
+      <c r="F169" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G169" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H169" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24171,26 +24171,26 @@
       <c r="M169" s="39"/>
     </row>
     <row r="170" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A170" s="78"/>
-      <c r="B170" s="79" t="s">
+      <c r="A170" s="71"/>
+      <c r="B170" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C170" s="80" t="s">
+      <c r="C170" s="73" t="s">
         <v>820</v>
       </c>
-      <c r="D170" s="79" t="s">
+      <c r="D170" s="72" t="s">
         <v>571</v>
       </c>
-      <c r="E170" s="81" t="s">
+      <c r="E170" s="74" t="s">
         <v>821</v>
       </c>
-      <c r="F170" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G170" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H170" s="72">
+      <c r="F170" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G170" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H170" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24201,26 +24201,26 @@
       <c r="M170" s="39"/>
     </row>
     <row r="171" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A171" s="82">
+      <c r="A171" s="75">
         <v>42</v>
       </c>
-      <c r="B171" s="83" t="s">
+      <c r="B171" s="76" t="s">
         <v>542</v>
       </c>
-      <c r="C171" s="84"/>
-      <c r="D171" s="83" t="s">
+      <c r="C171" s="77"/>
+      <c r="D171" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E171" s="85" t="s">
+      <c r="E171" s="78" t="s">
         <v>822</v>
       </c>
-      <c r="F171" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G171" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H171" s="72">
+      <c r="F171" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G171" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H171" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24231,28 +24231,28 @@
       <c r="M171" s="39"/>
     </row>
     <row r="172" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A172" s="73">
+      <c r="A172" s="66">
         <v>43</v>
       </c>
-      <c r="B172" s="74" t="s">
+      <c r="B172" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="C172" s="75" t="s">
+      <c r="C172" s="68" t="s">
         <v>823</v>
       </c>
-      <c r="D172" s="76" t="s">
+      <c r="D172" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E172" s="77" t="s">
+      <c r="E172" s="70" t="s">
         <v>824</v>
       </c>
-      <c r="F172" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G172" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H172" s="72">
+      <c r="F172" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G172" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H172" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24263,26 +24263,26 @@
       <c r="M172" s="39"/>
     </row>
     <row r="173" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A173" s="78"/>
-      <c r="B173" s="79" t="s">
+      <c r="A173" s="71"/>
+      <c r="B173" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C173" s="80" t="s">
+      <c r="C173" s="73" t="s">
         <v>825</v>
       </c>
-      <c r="D173" s="79" t="s">
+      <c r="D173" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E173" s="81" t="s">
+      <c r="E173" s="74" t="s">
         <v>826</v>
       </c>
-      <c r="F173" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G173" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H173" s="72">
+      <c r="F173" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G173" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H173" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24293,26 +24293,26 @@
       <c r="M173" s="39"/>
     </row>
     <row r="174" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A174" s="78"/>
-      <c r="B174" s="79" t="s">
+      <c r="A174" s="71"/>
+      <c r="B174" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C174" s="80" t="s">
+      <c r="C174" s="73" t="s">
         <v>827</v>
       </c>
-      <c r="D174" s="79" t="s">
+      <c r="D174" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E174" s="81" t="s">
+      <c r="E174" s="74" t="s">
         <v>828</v>
       </c>
-      <c r="F174" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G174" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H174" s="72">
+      <c r="F174" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G174" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H174" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24323,24 +24323,24 @@
       <c r="M174" s="39"/>
     </row>
     <row r="175" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A175" s="78"/>
-      <c r="B175" s="79" t="s">
+      <c r="A175" s="71"/>
+      <c r="B175" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C175" s="80"/>
-      <c r="D175" s="79" t="s">
+      <c r="C175" s="73"/>
+      <c r="D175" s="72" t="s">
         <v>571</v>
       </c>
-      <c r="E175" s="81" t="s">
+      <c r="E175" s="74" t="s">
         <v>829</v>
       </c>
-      <c r="F175" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G175" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H175" s="72">
+      <c r="F175" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G175" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H175" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24351,24 +24351,24 @@
       <c r="M175" s="39"/>
     </row>
     <row r="176" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A176" s="82"/>
-      <c r="B176" s="83" t="s">
+      <c r="A176" s="75"/>
+      <c r="B176" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C176" s="84"/>
-      <c r="D176" s="83" t="s">
+      <c r="C176" s="77"/>
+      <c r="D176" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="E176" s="85" t="s">
+      <c r="E176" s="78" t="s">
         <v>830</v>
       </c>
-      <c r="F176" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G176" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H176" s="72">
+      <c r="F176" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G176" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H176" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24379,28 +24379,28 @@
       <c r="M176" s="39"/>
     </row>
     <row r="177" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A177" s="73">
+      <c r="A177" s="66">
         <v>44</v>
       </c>
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C177" s="75" t="s">
+      <c r="C177" s="68" t="s">
         <v>831</v>
       </c>
-      <c r="D177" s="74" t="s">
+      <c r="D177" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E177" s="77" t="s">
+      <c r="E177" s="70" t="s">
         <v>832</v>
       </c>
-      <c r="F177" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G177" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H177" s="72">
+      <c r="F177" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G177" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H177" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24411,24 +24411,24 @@
       <c r="M177" s="39"/>
     </row>
     <row r="178" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A178" s="78"/>
-      <c r="B178" s="79" t="s">
+      <c r="A178" s="71"/>
+      <c r="B178" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C178" s="80"/>
-      <c r="D178" s="79" t="s">
+      <c r="C178" s="73"/>
+      <c r="D178" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E178" s="81" t="s">
+      <c r="E178" s="74" t="s">
         <v>833</v>
       </c>
-      <c r="F178" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G178" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H178" s="72">
+      <c r="F178" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G178" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H178" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24439,26 +24439,26 @@
       <c r="M178" s="39"/>
     </row>
     <row r="179" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A179" s="78"/>
-      <c r="B179" s="79" t="s">
+      <c r="A179" s="71"/>
+      <c r="B179" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C179" s="80" t="s">
+      <c r="C179" s="73" t="s">
         <v>834</v>
       </c>
-      <c r="D179" s="79" t="s">
+      <c r="D179" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E179" s="81" t="s">
+      <c r="E179" s="74" t="s">
         <v>835</v>
       </c>
-      <c r="F179" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G179" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H179" s="72">
+      <c r="F179" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G179" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H179" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24468,25 +24468,25 @@
       <c r="L179" s="39"/>
       <c r="M179" s="39"/>
     </row>
-    <row r="180" spans="1:13" ht="247" x14ac:dyDescent="0.2">
-      <c r="A180" s="78"/>
-      <c r="B180" s="79" t="s">
+    <row r="180" spans="1:13" ht="260" x14ac:dyDescent="0.2">
+      <c r="A180" s="71"/>
+      <c r="B180" s="72" t="s">
         <v>740</v>
       </c>
-      <c r="C180" s="80" t="s">
+      <c r="C180" s="73" t="s">
         <v>836</v>
       </c>
-      <c r="D180" s="79" t="s">
+      <c r="D180" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E180" s="81"/>
-      <c r="F180" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G180" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H180" s="72">
+      <c r="E180" s="74"/>
+      <c r="F180" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G180" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H180" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24497,26 +24497,26 @@
       <c r="M180" s="39"/>
     </row>
     <row r="181" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A181" s="82"/>
-      <c r="B181" s="83" t="s">
+      <c r="A181" s="75"/>
+      <c r="B181" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="C181" s="84" t="s">
+      <c r="C181" s="77" t="s">
         <v>837</v>
       </c>
-      <c r="D181" s="83" t="s">
+      <c r="D181" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="E181" s="85" t="s">
+      <c r="E181" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="F181" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G181" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H181" s="72">
+      <c r="F181" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G181" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H181" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24527,26 +24527,26 @@
       <c r="M181" s="39"/>
     </row>
     <row r="182" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A182" s="73">
+      <c r="A182" s="66">
         <v>45</v>
       </c>
-      <c r="B182" s="74" t="s">
+      <c r="B182" s="67" t="s">
         <v>740</v>
       </c>
-      <c r="C182" s="75" t="s">
+      <c r="C182" s="68" t="s">
         <v>839</v>
       </c>
-      <c r="D182" s="74" t="s">
+      <c r="D182" s="67" t="s">
         <v>642</v>
       </c>
-      <c r="E182" s="77"/>
-      <c r="F182" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G182" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H182" s="72">
+      <c r="E182" s="70"/>
+      <c r="F182" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G182" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H182" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24557,24 +24557,24 @@
       <c r="M182" s="39"/>
     </row>
     <row r="183" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A183" s="82"/>
-      <c r="B183" s="83" t="s">
+      <c r="A183" s="75"/>
+      <c r="B183" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C183" s="84" t="s">
+      <c r="C183" s="77" t="s">
         <v>840</v>
       </c>
-      <c r="D183" s="83" t="s">
+      <c r="D183" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="E183" s="85"/>
-      <c r="F183" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G183" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H183" s="72">
+      <c r="E183" s="78"/>
+      <c r="F183" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G183" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H183" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24584,29 +24584,29 @@
       <c r="L183" s="39"/>
       <c r="M183" s="39"/>
     </row>
-    <row r="184" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A184" s="73">
+    <row r="184" spans="1:13" ht="156" x14ac:dyDescent="0.2">
+      <c r="A184" s="66">
         <v>46</v>
       </c>
-      <c r="B184" s="74" t="s">
+      <c r="B184" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="C184" s="75" t="s">
+      <c r="C184" s="68" t="s">
         <v>841</v>
       </c>
-      <c r="D184" s="74" t="s">
+      <c r="D184" s="67" t="s">
         <v>571</v>
       </c>
-      <c r="E184" s="77" t="s">
+      <c r="E184" s="70" t="s">
         <v>842</v>
       </c>
-      <c r="F184" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G184" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H184" s="72">
+      <c r="F184" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G184" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H184" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24617,26 +24617,26 @@
       <c r="M184" s="39"/>
     </row>
     <row r="185" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A185" s="78"/>
-      <c r="B185" s="79" t="s">
+      <c r="A185" s="71"/>
+      <c r="B185" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C185" s="80" t="s">
+      <c r="C185" s="73" t="s">
         <v>843</v>
       </c>
-      <c r="D185" s="79" t="s">
+      <c r="D185" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E185" s="81" t="s">
+      <c r="E185" s="74" t="s">
         <v>844</v>
       </c>
-      <c r="F185" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G185" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H185" s="72">
+      <c r="F185" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G185" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H185" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24647,26 +24647,26 @@
       <c r="M185" s="39"/>
     </row>
     <row r="186" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A186" s="78"/>
-      <c r="B186" s="79" t="s">
+      <c r="A186" s="71"/>
+      <c r="B186" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C186" s="80" t="s">
+      <c r="C186" s="73" t="s">
         <v>843</v>
       </c>
-      <c r="D186" s="79" t="s">
+      <c r="D186" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E186" s="81" t="s">
+      <c r="E186" s="74" t="s">
         <v>845</v>
       </c>
-      <c r="F186" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G186" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H186" s="72">
+      <c r="F186" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G186" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H186" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24677,24 +24677,24 @@
       <c r="M186" s="39"/>
     </row>
     <row r="187" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A187" s="78"/>
-      <c r="B187" s="79" t="s">
+      <c r="A187" s="71"/>
+      <c r="B187" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="C187" s="80"/>
-      <c r="D187" s="79" t="s">
+      <c r="C187" s="73"/>
+      <c r="D187" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E187" s="81" t="s">
+      <c r="E187" s="74" t="s">
         <v>846</v>
       </c>
-      <c r="F187" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G187" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H187" s="72">
+      <c r="F187" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G187" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H187" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24705,24 +24705,24 @@
       <c r="M187" s="39"/>
     </row>
     <row r="188" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A188" s="78"/>
-      <c r="B188" s="79" t="s">
+      <c r="A188" s="71"/>
+      <c r="B188" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C188" s="80"/>
-      <c r="D188" s="86" t="s">
+      <c r="C188" s="73"/>
+      <c r="D188" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E188" s="81" t="s">
+      <c r="E188" s="74" t="s">
         <v>847</v>
       </c>
-      <c r="F188" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G188" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H188" s="72">
+      <c r="F188" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G188" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H188" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24733,24 +24733,24 @@
       <c r="M188" s="39"/>
     </row>
     <row r="189" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A189" s="82"/>
-      <c r="B189" s="83" t="s">
+      <c r="A189" s="75"/>
+      <c r="B189" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="C189" s="84" t="s">
+      <c r="C189" s="77" t="s">
         <v>848</v>
       </c>
-      <c r="D189" s="83" t="s">
+      <c r="D189" s="76" t="s">
         <v>849</v>
       </c>
-      <c r="E189" s="85" t="s">
+      <c r="E189" s="78" t="s">
         <v>850</v>
       </c>
-      <c r="F189" s="71"/>
-      <c r="G189" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H189" s="72">
+      <c r="F189" s="64"/>
+      <c r="G189" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H189" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24761,28 +24761,28 @@
       <c r="M189" s="39"/>
     </row>
     <row r="190" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A190" s="73">
+      <c r="A190" s="66">
         <v>47</v>
       </c>
-      <c r="B190" s="74" t="s">
+      <c r="B190" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C190" s="75" t="s">
+      <c r="C190" s="68" t="s">
         <v>851</v>
       </c>
-      <c r="D190" s="74" t="s">
+      <c r="D190" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E190" s="77" t="s">
+      <c r="E190" s="70" t="s">
         <v>852</v>
       </c>
-      <c r="F190" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G190" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H190" s="72">
+      <c r="F190" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G190" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H190" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24793,26 +24793,26 @@
       <c r="M190" s="39"/>
     </row>
     <row r="191" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A191" s="82"/>
-      <c r="B191" s="83" t="s">
+      <c r="A191" s="75"/>
+      <c r="B191" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="C191" s="84" t="s">
+      <c r="C191" s="77" t="s">
         <v>853</v>
       </c>
-      <c r="D191" s="89" t="s">
+      <c r="D191" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="E191" s="85" t="s">
+      <c r="E191" s="78" t="s">
         <v>854</v>
       </c>
-      <c r="F191" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G191" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H191" s="72">
+      <c r="F191" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G191" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H191" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24823,26 +24823,26 @@
       <c r="M191" s="39"/>
     </row>
     <row r="192" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A192" s="73">
+      <c r="A192" s="66">
         <v>48</v>
       </c>
-      <c r="B192" s="74" t="s">
+      <c r="B192" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C192" s="75"/>
-      <c r="D192" s="74" t="s">
+      <c r="C192" s="68"/>
+      <c r="D192" s="67" t="s">
         <v>598</v>
       </c>
-      <c r="E192" s="77" t="s">
+      <c r="E192" s="70" t="s">
         <v>855</v>
       </c>
-      <c r="F192" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G192" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H192" s="72">
+      <c r="F192" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G192" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H192" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24853,24 +24853,24 @@
       <c r="M192" s="39"/>
     </row>
     <row r="193" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A193" s="78"/>
-      <c r="B193" s="79" t="s">
+      <c r="A193" s="71"/>
+      <c r="B193" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C193" s="80"/>
-      <c r="D193" s="79" t="s">
+      <c r="C193" s="73"/>
+      <c r="D193" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E193" s="81" t="s">
+      <c r="E193" s="74" t="s">
         <v>856</v>
       </c>
-      <c r="F193" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G193" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H193" s="72">
+      <c r="F193" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G193" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H193" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24881,26 +24881,26 @@
       <c r="M193" s="39"/>
     </row>
     <row r="194" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A194" s="78"/>
-      <c r="B194" s="79" t="s">
+      <c r="A194" s="71"/>
+      <c r="B194" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C194" s="80" t="s">
+      <c r="C194" s="73" t="s">
         <v>857</v>
       </c>
-      <c r="D194" s="79" t="s">
+      <c r="D194" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E194" s="81" t="s">
+      <c r="E194" s="74" t="s">
         <v>858</v>
       </c>
-      <c r="F194" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G194" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H194" s="72">
+      <c r="F194" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G194" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H194" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24910,25 +24910,25 @@
       <c r="L194" s="39"/>
       <c r="M194" s="39"/>
     </row>
-    <row r="195" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A195" s="78"/>
-      <c r="B195" s="86" t="s">
+    <row r="195" spans="1:13" ht="182" x14ac:dyDescent="0.2">
+      <c r="A195" s="71"/>
+      <c r="B195" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="C195" s="80"/>
-      <c r="D195" s="79" t="s">
+      <c r="C195" s="73"/>
+      <c r="D195" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="E195" s="81" t="s">
+      <c r="E195" s="74" t="s">
         <v>859</v>
       </c>
-      <c r="F195" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G195" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H195" s="72">
+      <c r="F195" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G195" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H195" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24938,25 +24938,25 @@
       <c r="L195" s="39"/>
       <c r="M195" s="39"/>
     </row>
-    <row r="196" spans="1:13" ht="272" x14ac:dyDescent="0.2">
-      <c r="A196" s="78"/>
-      <c r="B196" s="79" t="s">
+    <row r="196" spans="1:13" ht="284" x14ac:dyDescent="0.2">
+      <c r="A196" s="71"/>
+      <c r="B196" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C196" s="80"/>
-      <c r="D196" s="79" t="s">
+      <c r="C196" s="73"/>
+      <c r="D196" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E196" s="81" t="s">
+      <c r="E196" s="74" t="s">
         <v>860</v>
       </c>
-      <c r="F196" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G196" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H196" s="72">
+      <c r="F196" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G196" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H196" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -24967,24 +24967,24 @@
       <c r="M196" s="39"/>
     </row>
     <row r="197" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A197" s="78"/>
-      <c r="B197" s="79" t="s">
+      <c r="A197" s="71"/>
+      <c r="B197" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C197" s="80"/>
-      <c r="D197" s="79" t="s">
+      <c r="C197" s="73"/>
+      <c r="D197" s="72" t="s">
         <v>625</v>
       </c>
-      <c r="E197" s="81" t="s">
+      <c r="E197" s="74" t="s">
         <v>861</v>
       </c>
-      <c r="F197" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G197" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H197" s="72">
+      <c r="F197" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G197" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H197" s="65">
         <f t="shared" ref="H197:H250" si="3">IF(F197=G197,1,0)</f>
         <v>1</v>
       </c>
@@ -24995,24 +24995,24 @@
       <c r="M197" s="39"/>
     </row>
     <row r="198" spans="1:13" ht="260" x14ac:dyDescent="0.2">
-      <c r="A198" s="82"/>
-      <c r="B198" s="83" t="s">
+      <c r="A198" s="75"/>
+      <c r="B198" s="76" t="s">
         <v>542</v>
       </c>
-      <c r="C198" s="84"/>
-      <c r="D198" s="83" t="s">
+      <c r="C198" s="77"/>
+      <c r="D198" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E198" s="85" t="s">
+      <c r="E198" s="78" t="s">
         <v>862</v>
       </c>
-      <c r="F198" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G198" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H198" s="72">
+      <c r="F198" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G198" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H198" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25023,28 +25023,28 @@
       <c r="M198" s="39"/>
     </row>
     <row r="199" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A199" s="73">
+      <c r="A199" s="66">
         <v>49</v>
       </c>
-      <c r="B199" s="74" t="s">
+      <c r="B199" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="C199" s="75" t="s">
+      <c r="C199" s="68" t="s">
         <v>863</v>
       </c>
-      <c r="D199" s="76" t="s">
+      <c r="D199" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E199" s="77" t="s">
+      <c r="E199" s="70" t="s">
         <v>864</v>
       </c>
-      <c r="F199" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G199" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H199" s="72">
+      <c r="F199" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G199" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H199" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25055,24 +25055,24 @@
       <c r="M199" s="39"/>
     </row>
     <row r="200" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A200" s="78"/>
-      <c r="B200" s="79" t="s">
+      <c r="A200" s="71"/>
+      <c r="B200" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C200" s="80"/>
-      <c r="D200" s="79" t="s">
+      <c r="C200" s="73"/>
+      <c r="D200" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E200" s="81" t="s">
+      <c r="E200" s="74" t="s">
         <v>865</v>
       </c>
-      <c r="F200" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G200" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H200" s="72">
+      <c r="F200" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G200" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H200" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25083,24 +25083,24 @@
       <c r="M200" s="39"/>
     </row>
     <row r="201" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A201" s="82"/>
-      <c r="B201" s="83" t="s">
+      <c r="A201" s="75"/>
+      <c r="B201" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="C201" s="84"/>
-      <c r="D201" s="83" t="s">
+      <c r="C201" s="77"/>
+      <c r="D201" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="E201" s="85" t="s">
+      <c r="E201" s="78" t="s">
         <v>866</v>
       </c>
-      <c r="F201" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G201" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H201" s="72">
+      <c r="F201" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G201" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H201" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25111,26 +25111,26 @@
       <c r="M201" s="39"/>
     </row>
     <row r="202" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A202" s="73">
+      <c r="A202" s="66">
         <v>50</v>
       </c>
-      <c r="B202" s="74" t="s">
+      <c r="B202" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="C202" s="75" t="s">
+      <c r="C202" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="D202" s="74" t="s">
+      <c r="D202" s="67" t="s">
         <v>642</v>
       </c>
-      <c r="E202" s="77"/>
-      <c r="F202" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G202" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H202" s="72">
+      <c r="E202" s="70"/>
+      <c r="F202" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G202" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H202" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25140,25 +25140,25 @@
       <c r="L202" s="39"/>
       <c r="M202" s="39"/>
     </row>
-    <row r="203" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A203" s="78"/>
-      <c r="B203" s="79" t="s">
+    <row r="203" spans="1:13" ht="130" x14ac:dyDescent="0.2">
+      <c r="A203" s="71"/>
+      <c r="B203" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C203" s="80" t="s">
+      <c r="C203" s="73" t="s">
         <v>868</v>
       </c>
-      <c r="D203" s="79" t="s">
+      <c r="D203" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E203" s="81"/>
-      <c r="F203" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G203" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H203" s="72">
+      <c r="E203" s="74"/>
+      <c r="F203" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G203" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H203" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25168,27 +25168,27 @@
       <c r="L203" s="39"/>
       <c r="M203" s="39"/>
     </row>
-    <row r="204" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A204" s="78"/>
-      <c r="B204" s="79" t="s">
+    <row r="204" spans="1:13" ht="130" x14ac:dyDescent="0.2">
+      <c r="A204" s="71"/>
+      <c r="B204" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C204" s="80" t="s">
+      <c r="C204" s="73" t="s">
         <v>869</v>
       </c>
-      <c r="D204" s="79" t="s">
+      <c r="D204" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="E204" s="81" t="s">
+      <c r="E204" s="74" t="s">
         <v>870</v>
       </c>
-      <c r="F204" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G204" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H204" s="72">
+      <c r="F204" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G204" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H204" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25199,26 +25199,26 @@
       <c r="M204" s="39"/>
     </row>
     <row r="205" spans="1:13" ht="234" x14ac:dyDescent="0.2">
-      <c r="A205" s="78"/>
-      <c r="B205" s="79" t="s">
+      <c r="A205" s="71"/>
+      <c r="B205" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C205" s="80" t="s">
+      <c r="C205" s="73" t="s">
         <v>871</v>
       </c>
-      <c r="D205" s="79" t="s">
+      <c r="D205" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E205" s="81" t="s">
+      <c r="E205" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="F205" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G205" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H205" s="72">
+      <c r="F205" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G205" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H205" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25229,24 +25229,24 @@
       <c r="M205" s="39"/>
     </row>
     <row r="206" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A206" s="82"/>
-      <c r="B206" s="83" t="s">
+      <c r="A206" s="75"/>
+      <c r="B206" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="C206" s="84"/>
-      <c r="D206" s="83" t="s">
+      <c r="C206" s="77"/>
+      <c r="D206" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="E206" s="85" t="s">
+      <c r="E206" s="78" t="s">
         <v>873</v>
       </c>
-      <c r="F206" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G206" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H206" s="72">
+      <c r="F206" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G206" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H206" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25257,28 +25257,28 @@
       <c r="M206" s="39"/>
     </row>
     <row r="207" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A207" s="68">
+      <c r="A207" s="61">
         <v>51</v>
       </c>
-      <c r="B207" s="69" t="s">
+      <c r="B207" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="C207" s="90" t="s">
+      <c r="C207" s="83" t="s">
         <v>874</v>
       </c>
-      <c r="D207" s="69" t="s">
+      <c r="D207" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="E207" s="91" t="s">
+      <c r="E207" s="84" t="s">
         <v>875</v>
       </c>
-      <c r="F207" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G207" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H207" s="72">
+      <c r="F207" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G207" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H207" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25289,28 +25289,28 @@
       <c r="M207" s="39"/>
     </row>
     <row r="208" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A208" s="73">
+      <c r="A208" s="66">
         <v>52</v>
       </c>
-      <c r="B208" s="74" t="s">
+      <c r="B208" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="C208" s="75" t="s">
+      <c r="C208" s="68" t="s">
         <v>876</v>
       </c>
-      <c r="D208" s="76" t="s">
+      <c r="D208" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="E208" s="77" t="s">
+      <c r="E208" s="70" t="s">
         <v>877</v>
       </c>
-      <c r="F208" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G208" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H208" s="72">
+      <c r="F208" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G208" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H208" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25321,26 +25321,26 @@
       <c r="M208" s="39"/>
     </row>
     <row r="209" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A209" s="78"/>
-      <c r="B209" s="79" t="s">
+      <c r="A209" s="71"/>
+      <c r="B209" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C209" s="80" t="s">
+      <c r="C209" s="73" t="s">
         <v>878</v>
       </c>
-      <c r="D209" s="79" t="s">
+      <c r="D209" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E209" s="81" t="s">
+      <c r="E209" s="74" t="s">
         <v>879</v>
       </c>
-      <c r="F209" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G209" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H209" s="72">
+      <c r="F209" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G209" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H209" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25351,22 +25351,22 @@
       <c r="M209" s="39"/>
     </row>
     <row r="210" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A210" s="78"/>
-      <c r="B210" s="79" t="s">
+      <c r="A210" s="71"/>
+      <c r="B210" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C210" s="80"/>
-      <c r="D210" s="79" t="s">
+      <c r="C210" s="73"/>
+      <c r="D210" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="E210" s="81" t="s">
+      <c r="E210" s="74" t="s">
         <v>880</v>
       </c>
-      <c r="F210" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G210" s="71"/>
-      <c r="H210" s="72">
+      <c r="F210" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G210" s="64"/>
+      <c r="H210" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -25377,26 +25377,26 @@
       <c r="M210" s="39"/>
     </row>
     <row r="211" spans="1:13" ht="234" x14ac:dyDescent="0.2">
-      <c r="A211" s="78"/>
-      <c r="B211" s="79" t="s">
+      <c r="A211" s="71"/>
+      <c r="B211" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="D211" s="79" t="s">
+      <c r="D211" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E211" s="81" t="s">
+      <c r="E211" s="74" t="s">
         <v>882</v>
       </c>
-      <c r="F211" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G211" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H211" s="72">
+      <c r="F211" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G211" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H211" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25407,24 +25407,24 @@
       <c r="M211" s="39"/>
     </row>
     <row r="212" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A212" s="82"/>
-      <c r="B212" s="83" t="s">
+      <c r="A212" s="75"/>
+      <c r="B212" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C212" s="84"/>
-      <c r="D212" s="83" t="s">
+      <c r="C212" s="77"/>
+      <c r="D212" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="E212" s="85" t="s">
+      <c r="E212" s="78" t="s">
         <v>883</v>
       </c>
-      <c r="F212" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G212" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H212" s="72">
+      <c r="F212" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H212" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25435,26 +25435,26 @@
       <c r="M212" s="39"/>
     </row>
     <row r="213" spans="1:13" ht="247" x14ac:dyDescent="0.2">
-      <c r="A213" s="73">
+      <c r="A213" s="66">
         <v>53</v>
       </c>
-      <c r="B213" s="74" t="s">
+      <c r="B213" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="C213" s="75" t="s">
+      <c r="C213" s="68" t="s">
         <v>884</v>
       </c>
-      <c r="D213" s="74" t="s">
+      <c r="D213" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="E213" s="77"/>
-      <c r="F213" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G213" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H213" s="72">
+      <c r="E213" s="70"/>
+      <c r="F213" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G213" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H213" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25465,24 +25465,24 @@
       <c r="M213" s="39"/>
     </row>
     <row r="214" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A214" s="78"/>
-      <c r="B214" s="79" t="s">
+      <c r="A214" s="71"/>
+      <c r="B214" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C214" s="80" t="s">
+      <c r="C214" s="73" t="s">
         <v>885</v>
       </c>
-      <c r="D214" s="79" t="s">
+      <c r="D214" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E214" s="81"/>
-      <c r="F214" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G214" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H214" s="72">
+      <c r="E214" s="74"/>
+      <c r="F214" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G214" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H214" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25493,24 +25493,24 @@
       <c r="M214" s="39"/>
     </row>
     <row r="215" spans="1:13" ht="195" x14ac:dyDescent="0.2">
-      <c r="A215" s="78"/>
-      <c r="B215" s="79" t="s">
+      <c r="A215" s="71"/>
+      <c r="B215" s="72" t="s">
         <v>740</v>
       </c>
-      <c r="C215" s="80" t="s">
+      <c r="C215" s="73" t="s">
         <v>886</v>
       </c>
-      <c r="D215" s="79" t="s">
+      <c r="D215" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E215" s="81"/>
-      <c r="F215" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G215" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H215" s="72">
+      <c r="E215" s="74"/>
+      <c r="F215" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G215" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H215" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25521,24 +25521,24 @@
       <c r="M215" s="39"/>
     </row>
     <row r="216" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A216" s="78"/>
-      <c r="B216" s="79" t="s">
+      <c r="A216" s="71"/>
+      <c r="B216" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="73" t="s">
         <v>887</v>
       </c>
-      <c r="D216" s="86" t="s">
+      <c r="D216" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E216" s="81"/>
-      <c r="F216" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G216" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H216" s="72">
+      <c r="E216" s="74"/>
+      <c r="F216" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G216" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H216" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25549,24 +25549,24 @@
       <c r="M216" s="39"/>
     </row>
     <row r="217" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A217" s="78"/>
-      <c r="B217" s="79" t="s">
+      <c r="A217" s="71"/>
+      <c r="B217" s="72" t="s">
         <v>582</v>
       </c>
-      <c r="C217" s="80" t="s">
+      <c r="C217" s="73" t="s">
         <v>888</v>
       </c>
-      <c r="D217" s="79" t="s">
+      <c r="D217" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="E217" s="81"/>
-      <c r="F217" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G217" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H217" s="72">
+      <c r="E217" s="74"/>
+      <c r="F217" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G217" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H217" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25577,24 +25577,24 @@
       <c r="M217" s="39"/>
     </row>
     <row r="218" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A218" s="82"/>
-      <c r="B218" s="89" t="s">
+      <c r="A218" s="75"/>
+      <c r="B218" s="82" t="s">
         <v>592</v>
       </c>
-      <c r="C218" s="84" t="s">
+      <c r="C218" s="77" t="s">
         <v>889</v>
       </c>
-      <c r="D218" s="83" t="s">
+      <c r="D218" s="76" t="s">
         <v>594</v>
       </c>
-      <c r="E218" s="85"/>
-      <c r="F218" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G218" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H218" s="72">
+      <c r="E218" s="78"/>
+      <c r="F218" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H218" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25605,28 +25605,28 @@
       <c r="M218" s="39"/>
     </row>
     <row r="219" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A219" s="68">
+      <c r="A219" s="61">
         <v>54</v>
       </c>
-      <c r="B219" s="69" t="s">
+      <c r="B219" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="C219" s="90" t="s">
+      <c r="C219" s="83" t="s">
         <v>890</v>
       </c>
-      <c r="D219" s="69" t="s">
+      <c r="D219" s="62" t="s">
         <v>546</v>
       </c>
-      <c r="E219" s="91" t="s">
+      <c r="E219" s="84" t="s">
         <v>891</v>
       </c>
-      <c r="F219" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G219" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H219" s="72">
+      <c r="F219" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G219" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H219" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25637,28 +25637,28 @@
       <c r="M219" s="39"/>
     </row>
     <row r="220" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A220" s="73">
+      <c r="A220" s="66">
         <v>55</v>
       </c>
-      <c r="B220" s="74" t="s">
+      <c r="B220" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C220" s="75" t="s">
+      <c r="C220" s="68" t="s">
         <v>892</v>
       </c>
-      <c r="D220" s="74" t="s">
+      <c r="D220" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E220" s="77" t="s">
+      <c r="E220" s="70" t="s">
         <v>893</v>
       </c>
-      <c r="F220" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G220" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H220" s="72">
+      <c r="F220" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G220" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H220" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25669,26 +25669,26 @@
       <c r="M220" s="39"/>
     </row>
     <row r="221" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A221" s="78"/>
-      <c r="B221" s="79" t="s">
+      <c r="A221" s="71"/>
+      <c r="B221" s="72" t="s">
         <v>580</v>
       </c>
-      <c r="C221" s="80" t="s">
+      <c r="C221" s="73" t="s">
         <v>894</v>
       </c>
-      <c r="D221" s="79" t="s">
+      <c r="D221" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="E221" s="81" t="s">
+      <c r="E221" s="74" t="s">
         <v>895</v>
       </c>
-      <c r="F221" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G221" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H221" s="72">
+      <c r="F221" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G221" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H221" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25699,20 +25699,20 @@
       <c r="M221" s="39"/>
     </row>
     <row r="222" spans="1:13" ht="14" x14ac:dyDescent="0.2">
-      <c r="A222" s="78"/>
-      <c r="B222" s="79" t="s">
+      <c r="A222" s="71"/>
+      <c r="B222" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="C222" s="80"/>
-      <c r="D222" s="79" t="s">
+      <c r="C222" s="73"/>
+      <c r="D222" s="72" t="s">
         <v>896</v>
       </c>
-      <c r="E222" s="81"/>
-      <c r="F222" s="71"/>
-      <c r="G222" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H222" s="72">
+      <c r="E222" s="74"/>
+      <c r="F222" s="64"/>
+      <c r="G222" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H222" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -25723,24 +25723,24 @@
       <c r="M222" s="39"/>
     </row>
     <row r="223" spans="1:13" ht="143" x14ac:dyDescent="0.2">
-      <c r="A223" s="82"/>
-      <c r="B223" s="83" t="s">
+      <c r="A223" s="75"/>
+      <c r="B223" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="C223" s="84"/>
-      <c r="D223" s="83" t="s">
+      <c r="C223" s="77"/>
+      <c r="D223" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="E223" s="85" t="s">
+      <c r="E223" s="78" t="s">
         <v>897</v>
       </c>
-      <c r="F223" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G223" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H223" s="72">
+      <c r="F223" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G223" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H223" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25751,28 +25751,28 @@
       <c r="M223" s="39"/>
     </row>
     <row r="224" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A224" s="73">
+      <c r="A224" s="66">
         <v>56</v>
       </c>
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="C224" s="75" t="s">
+      <c r="C224" s="68" t="s">
         <v>898</v>
       </c>
-      <c r="D224" s="74" t="s">
+      <c r="D224" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E224" s="77" t="s">
+      <c r="E224" s="70" t="s">
         <v>899</v>
       </c>
-      <c r="F224" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G224" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H224" s="72">
+      <c r="F224" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G224" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H224" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25782,25 +25782,25 @@
       <c r="L224" s="39"/>
       <c r="M224" s="39"/>
     </row>
-    <row r="225" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A225" s="78"/>
-      <c r="B225" s="79" t="s">
+    <row r="225" spans="1:13" ht="104" x14ac:dyDescent="0.2">
+      <c r="A225" s="71"/>
+      <c r="B225" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C225" s="80"/>
-      <c r="D225" s="86" t="s">
+      <c r="C225" s="73"/>
+      <c r="D225" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E225" s="81" t="s">
+      <c r="E225" s="74" t="s">
         <v>900</v>
       </c>
-      <c r="F225" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G225" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H225" s="72">
+      <c r="F225" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G225" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H225" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25811,24 +25811,24 @@
       <c r="M225" s="39"/>
     </row>
     <row r="226" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A226" s="78"/>
-      <c r="B226" s="79" t="s">
+      <c r="A226" s="71"/>
+      <c r="B226" s="72" t="s">
         <v>582</v>
       </c>
-      <c r="C226" s="80"/>
-      <c r="D226" s="79" t="s">
+      <c r="C226" s="73"/>
+      <c r="D226" s="72" t="s">
         <v>583</v>
       </c>
-      <c r="E226" s="81" t="s">
+      <c r="E226" s="74" t="s">
         <v>901</v>
       </c>
-      <c r="F226" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G226" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H226" s="72">
+      <c r="F226" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G226" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H226" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25839,26 +25839,26 @@
       <c r="M226" s="39"/>
     </row>
     <row r="227" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A227" s="78"/>
-      <c r="B227" s="79" t="s">
+      <c r="A227" s="71"/>
+      <c r="B227" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C227" s="80" t="s">
+      <c r="C227" s="73" t="s">
         <v>902</v>
       </c>
-      <c r="D227" s="79" t="s">
+      <c r="D227" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E227" s="81" t="s">
+      <c r="E227" s="74" t="s">
         <v>903</v>
       </c>
-      <c r="F227" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G227" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H227" s="72">
+      <c r="F227" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G227" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H227" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25869,28 +25869,28 @@
       <c r="M227" s="39"/>
     </row>
     <row r="228" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A228" s="78">
+      <c r="A228" s="71">
         <v>58</v>
       </c>
-      <c r="B228" s="79" t="s">
+      <c r="B228" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C228" s="80" t="s">
+      <c r="C228" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="D228" s="86" t="s">
+      <c r="D228" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E228" s="81" t="s">
+      <c r="E228" s="74" t="s">
         <v>905</v>
       </c>
-      <c r="F228" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G228" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H228" s="72">
+      <c r="F228" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G228" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H228" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25901,26 +25901,26 @@
       <c r="M228" s="39"/>
     </row>
     <row r="229" spans="1:13" ht="169" x14ac:dyDescent="0.2">
-      <c r="A229" s="87"/>
-      <c r="B229" s="79" t="s">
+      <c r="A229" s="80"/>
+      <c r="B229" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C229" s="80" t="s">
+      <c r="C229" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D229" s="79" t="s">
+      <c r="D229" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E229" s="81" t="s">
+      <c r="E229" s="74" t="s">
         <v>907</v>
       </c>
-      <c r="F229" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G229" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H229" s="72">
+      <c r="F229" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G229" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H229" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25931,26 +25931,26 @@
       <c r="M229" s="39"/>
     </row>
     <row r="230" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A230" s="87"/>
-      <c r="B230" s="79" t="s">
+      <c r="A230" s="80"/>
+      <c r="B230" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C230" s="80" t="s">
+      <c r="C230" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="D230" s="79" t="s">
+      <c r="D230" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E230" s="81" t="s">
+      <c r="E230" s="74" t="s">
         <v>909</v>
       </c>
-      <c r="F230" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G230" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H230" s="72">
+      <c r="F230" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G230" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H230" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25961,26 +25961,26 @@
       <c r="M230" s="39"/>
     </row>
     <row r="231" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A231" s="87"/>
-      <c r="B231" s="79" t="s">
+      <c r="A231" s="80"/>
+      <c r="B231" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="C231" s="80" t="s">
+      <c r="C231" s="73" t="s">
         <v>910</v>
       </c>
-      <c r="D231" s="79" t="s">
+      <c r="D231" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="E231" s="81" t="s">
+      <c r="E231" s="74" t="s">
         <v>911</v>
       </c>
-      <c r="F231" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G231" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H231" s="72">
+      <c r="F231" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G231" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H231" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -25991,24 +25991,24 @@
       <c r="M231" s="39"/>
     </row>
     <row r="232" spans="1:13" ht="65" x14ac:dyDescent="0.2">
-      <c r="A232" s="88"/>
-      <c r="B232" s="83" t="s">
+      <c r="A232" s="81"/>
+      <c r="B232" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="C232" s="84"/>
-      <c r="D232" s="83" t="s">
+      <c r="C232" s="77"/>
+      <c r="D232" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="E232" s="85" t="s">
+      <c r="E232" s="78" t="s">
         <v>912</v>
       </c>
-      <c r="F232" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G232" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H232" s="72">
+      <c r="F232" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G232" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H232" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26019,28 +26019,28 @@
       <c r="M232" s="39"/>
     </row>
     <row r="233" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A233" s="73">
+      <c r="A233" s="66">
         <v>59</v>
       </c>
-      <c r="B233" s="74" t="s">
+      <c r="B233" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C233" s="75" t="s">
+      <c r="C233" s="68" t="s">
         <v>624</v>
       </c>
-      <c r="D233" s="74" t="s">
+      <c r="D233" s="67" t="s">
         <v>625</v>
       </c>
-      <c r="E233" s="77" t="s">
+      <c r="E233" s="70" t="s">
         <v>626</v>
       </c>
-      <c r="F233" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G233" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H233" s="72">
+      <c r="F233" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G233" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H233" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26051,24 +26051,24 @@
       <c r="M233" s="39"/>
     </row>
     <row r="234" spans="1:13" ht="52" x14ac:dyDescent="0.2">
-      <c r="A234" s="87"/>
-      <c r="B234" s="79" t="s">
+      <c r="A234" s="80"/>
+      <c r="B234" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C234" s="80"/>
-      <c r="D234" s="79" t="s">
+      <c r="C234" s="73"/>
+      <c r="D234" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E234" s="81" t="s">
+      <c r="E234" s="74" t="s">
         <v>913</v>
       </c>
-      <c r="F234" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G234" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H234" s="72">
+      <c r="F234" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G234" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H234" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26079,24 +26079,24 @@
       <c r="M234" s="39"/>
     </row>
     <row r="235" spans="1:13" ht="182" x14ac:dyDescent="0.2">
-      <c r="A235" s="87"/>
-      <c r="B235" s="79" t="s">
+      <c r="A235" s="80"/>
+      <c r="B235" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="C235" s="80"/>
-      <c r="D235" s="86" t="s">
+      <c r="C235" s="73"/>
+      <c r="D235" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="E235" s="81" t="s">
+      <c r="E235" s="74" t="s">
         <v>914</v>
       </c>
-      <c r="F235" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G235" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H235" s="72">
+      <c r="F235" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G235" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H235" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26107,26 +26107,26 @@
       <c r="M235" s="39"/>
     </row>
     <row r="236" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A236" s="87"/>
-      <c r="B236" s="79" t="s">
+      <c r="A236" s="80"/>
+      <c r="B236" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="C236" s="80" t="s">
+      <c r="C236" s="73" t="s">
         <v>915</v>
       </c>
-      <c r="D236" s="79" t="s">
+      <c r="D236" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="E236" s="81" t="s">
+      <c r="E236" s="74" t="s">
         <v>627</v>
       </c>
-      <c r="F236" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G236" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H236" s="72">
+      <c r="F236" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G236" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H236" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26136,27 +26136,27 @@
       <c r="L236" s="39"/>
       <c r="M236" s="39"/>
     </row>
-    <row r="237" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A237" s="87"/>
-      <c r="B237" s="79" t="s">
+    <row r="237" spans="1:13" ht="104" x14ac:dyDescent="0.2">
+      <c r="A237" s="80"/>
+      <c r="B237" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="C237" s="80" t="s">
+      <c r="C237" s="73" t="s">
         <v>916</v>
       </c>
-      <c r="D237" s="79" t="s">
+      <c r="D237" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="E237" s="81" t="s">
+      <c r="E237" s="74" t="s">
         <v>917</v>
       </c>
-      <c r="F237" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G237" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H237" s="72">
+      <c r="F237" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G237" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H237" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26167,26 +26167,26 @@
       <c r="M237" s="39"/>
     </row>
     <row r="238" spans="1:13" ht="130" x14ac:dyDescent="0.2">
-      <c r="A238" s="78"/>
-      <c r="B238" s="79" t="s">
+      <c r="A238" s="71"/>
+      <c r="B238" s="72" t="s">
         <v>596</v>
       </c>
-      <c r="C238" s="80" t="s">
+      <c r="C238" s="73" t="s">
         <v>918</v>
       </c>
-      <c r="D238" s="79" t="s">
+      <c r="D238" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E238" s="81" t="s">
+      <c r="E238" s="74" t="s">
         <v>628</v>
       </c>
-      <c r="F238" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G238" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H238" s="72">
+      <c r="F238" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G238" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H238" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26197,26 +26197,26 @@
       <c r="M238" s="39"/>
     </row>
     <row r="239" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A239" s="82"/>
-      <c r="B239" s="83" t="s">
+      <c r="A239" s="75"/>
+      <c r="B239" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C239" s="84" t="s">
+      <c r="C239" s="77" t="s">
         <v>629</v>
       </c>
-      <c r="D239" s="83" t="s">
+      <c r="D239" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="E239" s="85" t="s">
+      <c r="E239" s="78" t="s">
         <v>919</v>
       </c>
-      <c r="F239" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G239" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H239" s="72">
+      <c r="F239" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G239" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H239" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26226,27 +26226,27 @@
       <c r="L239" s="39"/>
       <c r="M239" s="39"/>
     </row>
-    <row r="240" spans="1:13" ht="91" x14ac:dyDescent="0.2">
-      <c r="A240" s="73">
+    <row r="240" spans="1:13" ht="104" x14ac:dyDescent="0.2">
+      <c r="A240" s="66">
         <v>60</v>
       </c>
-      <c r="B240" s="74" t="s">
+      <c r="B240" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C240" s="75"/>
-      <c r="D240" s="74" t="s">
+      <c r="C240" s="68"/>
+      <c r="D240" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E240" s="77" t="s">
+      <c r="E240" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="F240" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G240" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H240" s="72">
+      <c r="F240" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G240" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H240" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26257,26 +26257,26 @@
       <c r="M240" s="39"/>
     </row>
     <row r="241" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A241" s="88"/>
-      <c r="B241" s="83" t="s">
+      <c r="A241" s="81"/>
+      <c r="B241" s="76" t="s">
         <v>615</v>
       </c>
-      <c r="C241" s="84" t="s">
+      <c r="C241" s="77" t="s">
         <v>921</v>
       </c>
-      <c r="D241" s="83" t="s">
+      <c r="D241" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="E241" s="85" t="s">
+      <c r="E241" s="78" t="s">
         <v>922</v>
       </c>
-      <c r="F241" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G241" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H241" s="72">
+      <c r="F241" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G241" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H241" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26287,28 +26287,28 @@
       <c r="M241" s="39"/>
     </row>
     <row r="242" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A242" s="73">
+      <c r="A242" s="66">
         <v>61</v>
       </c>
-      <c r="B242" s="74" t="s">
+      <c r="B242" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="C242" s="75" t="s">
+      <c r="C242" s="68" t="s">
         <v>923</v>
       </c>
-      <c r="D242" s="74" t="s">
+      <c r="D242" s="67" t="s">
         <v>642</v>
       </c>
-      <c r="E242" s="77" t="s">
+      <c r="E242" s="70" t="s">
         <v>924</v>
       </c>
-      <c r="F242" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G242" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H242" s="72">
+      <c r="F242" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G242" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H242" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26319,26 +26319,26 @@
       <c r="M242" s="39"/>
     </row>
     <row r="243" spans="1:13" ht="117" x14ac:dyDescent="0.2">
-      <c r="A243" s="88"/>
-      <c r="B243" s="83" t="s">
+      <c r="A243" s="81"/>
+      <c r="B243" s="76" t="s">
         <v>550</v>
       </c>
-      <c r="C243" s="84" t="s">
+      <c r="C243" s="77" t="s">
         <v>925</v>
       </c>
-      <c r="D243" s="83" t="s">
+      <c r="D243" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="E243" s="85" t="s">
+      <c r="E243" s="78" t="s">
         <v>926</v>
       </c>
-      <c r="F243" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G243" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H243" s="72">
+      <c r="F243" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G243" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H243" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26349,28 +26349,28 @@
       <c r="M243" s="39"/>
     </row>
     <row r="244" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A244" s="73">
+      <c r="A244" s="66">
         <v>62</v>
       </c>
-      <c r="B244" s="74" t="s">
+      <c r="B244" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C244" s="75" t="s">
+      <c r="C244" s="68" t="s">
         <v>927</v>
       </c>
-      <c r="D244" s="74" t="s">
+      <c r="D244" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E244" s="77" t="s">
+      <c r="E244" s="70" t="s">
         <v>928</v>
       </c>
-      <c r="F244" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G244" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H244" s="72">
+      <c r="F244" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G244" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H244" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26381,26 +26381,26 @@
       <c r="M244" s="39"/>
     </row>
     <row r="245" spans="1:13" ht="78" x14ac:dyDescent="0.2">
-      <c r="A245" s="87"/>
-      <c r="B245" s="79" t="s">
+      <c r="A245" s="80"/>
+      <c r="B245" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C245" s="80" t="s">
+      <c r="C245" s="73" t="s">
         <v>929</v>
       </c>
-      <c r="D245" s="79" t="s">
+      <c r="D245" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E245" s="81" t="s">
+      <c r="E245" s="74" t="s">
         <v>930</v>
       </c>
-      <c r="F245" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G245" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H245" s="72">
+      <c r="F245" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G245" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H245" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26411,26 +26411,26 @@
       <c r="M245" s="39"/>
     </row>
     <row r="246" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A246" s="88"/>
-      <c r="B246" s="83" t="s">
+      <c r="A246" s="81"/>
+      <c r="B246" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="C246" s="84" t="s">
+      <c r="C246" s="77" t="s">
         <v>931</v>
       </c>
-      <c r="D246" s="83" t="s">
+      <c r="D246" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="E246" s="85" t="s">
+      <c r="E246" s="78" t="s">
         <v>932</v>
       </c>
-      <c r="F246" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G246" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H246" s="72">
+      <c r="F246" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G246" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H246" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26441,28 +26441,28 @@
       <c r="M246" s="39"/>
     </row>
     <row r="247" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A247" s="73">
+      <c r="A247" s="66">
         <v>63</v>
       </c>
-      <c r="B247" s="74" t="s">
+      <c r="B247" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="C247" s="75" t="s">
+      <c r="C247" s="68" t="s">
         <v>933</v>
       </c>
-      <c r="D247" s="74" t="s">
+      <c r="D247" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="E247" s="77" t="s">
+      <c r="E247" s="70" t="s">
         <v>934</v>
       </c>
-      <c r="F247" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G247" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H247" s="72">
+      <c r="F247" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G247" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H247" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26473,26 +26473,26 @@
       <c r="M247" s="39"/>
     </row>
     <row r="248" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A248" s="78"/>
-      <c r="B248" s="79" t="s">
+      <c r="A248" s="71"/>
+      <c r="B248" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="C248" s="80" t="s">
+      <c r="C248" s="73" t="s">
         <v>935</v>
       </c>
-      <c r="D248" s="79" t="s">
+      <c r="D248" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="E248" s="81" t="s">
+      <c r="E248" s="74" t="s">
         <v>936</v>
       </c>
-      <c r="F248" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G248" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H248" s="72">
+      <c r="F248" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G248" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H248" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26503,26 +26503,26 @@
       <c r="M248" s="39"/>
     </row>
     <row r="249" spans="1:13" ht="104" x14ac:dyDescent="0.2">
-      <c r="A249" s="87"/>
-      <c r="B249" s="79" t="s">
+      <c r="A249" s="80"/>
+      <c r="B249" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C249" s="80" t="s">
+      <c r="C249" s="73" t="s">
         <v>937</v>
       </c>
-      <c r="D249" s="79" t="s">
+      <c r="D249" s="72" t="s">
         <v>938</v>
       </c>
-      <c r="E249" s="81" t="s">
+      <c r="E249" s="74" t="s">
         <v>939</v>
       </c>
-      <c r="F249" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G249" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H249" s="72">
+      <c r="F249" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G249" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H249" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26532,27 +26532,27 @@
       <c r="L249" s="39"/>
       <c r="M249" s="39"/>
     </row>
-    <row r="250" spans="1:13" ht="156" x14ac:dyDescent="0.2">
-      <c r="A250" s="88"/>
-      <c r="B250" s="83" t="s">
+    <row r="250" spans="1:13" ht="169" x14ac:dyDescent="0.2">
+      <c r="A250" s="81"/>
+      <c r="B250" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="C250" s="84" t="s">
+      <c r="C250" s="77" t="s">
         <v>940</v>
       </c>
-      <c r="D250" s="83" t="s">
+      <c r="D250" s="76" t="s">
         <v>941</v>
       </c>
-      <c r="E250" s="85" t="s">
+      <c r="E250" s="78" t="s">
         <v>942</v>
       </c>
-      <c r="F250" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="G250" s="71" t="s">
-        <v>958</v>
-      </c>
-      <c r="H250" s="72">
+      <c r="F250" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="G250" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="H250" s="65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26563,16 +26563,16 @@
       <c r="M250" s="39"/>
     </row>
     <row r="251" spans="1:13" ht="14" x14ac:dyDescent="0.2">
-      <c r="A251" s="110"/>
-      <c r="B251" s="111"/>
-      <c r="C251" s="110"/>
-      <c r="D251" s="111"/>
-      <c r="E251" s="112"/>
-      <c r="F251" s="113"/>
-      <c r="G251" s="113" t="s">
+      <c r="A251" s="103"/>
+      <c r="B251" s="104"/>
+      <c r="C251" s="103"/>
+      <c r="D251" s="104"/>
+      <c r="E251" s="105"/>
+      <c r="F251" s="106"/>
+      <c r="G251" s="106" t="s">
         <v>943</v>
       </c>
-      <c r="H251" s="114">
+      <c r="H251" s="107">
         <f>COUNTIF(H4:H250,"1")/(COUNTIF(H4:H250,"0")+COUNTIF(H4:H250,"1"))*100</f>
         <v>91.902834008097173</v>
       </c>
@@ -34843,12 +34843,12 @@
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E75" sqref="E75"/>
       <selection pane="topRight" activeCell="E75" sqref="E75"/>
       <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34868,38 +34868,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="112" t="s">
         <v>1019</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="113" t="s">
         <v>944</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="113" t="s">
         <v>945</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
